--- a/data/coded_segments/sd_1_1.xlsx
+++ b/data/coded_segments/sd_1_1.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3765EDD6-C9B8-5745-B9B1-05F3C7DB66A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F53EE7AE-048F-7F4F-9ECF-76953AD07F8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAXQDA 12" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5883" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5913" uniqueCount="1680">
   <si>
     <t>Color</t>
   </si>
@@ -86,7 +86,7 @@
     <t>dattaray</t>
   </si>
   <si>
-    <t>07/22/2019 11:20:03</t>
+    <t>7/22/19 11:20:03</t>
   </si>
   <si>
     <t>Bacteria:Strain</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">blaCTX-M-15, </t>
   </si>
   <si>
-    <t>07/22/2019 11:22:01</t>
+    <t>7/22/19 11:22:01</t>
   </si>
   <si>
     <t>Drug Resisted</t>
@@ -116,7 +116,7 @@
     <t>ampicillin</t>
   </si>
   <si>
-    <t>07/22/2019 11:37:41</t>
+    <t>7/22/19 11:37:41</t>
   </si>
   <si>
     <t>3: 1065</t>
@@ -128,7 +128,7 @@
     <t>gentamicin</t>
   </si>
   <si>
-    <t>07/22/2019 11:37:45</t>
+    <t>7/22/19 11:37:45</t>
   </si>
   <si>
     <t>3: 1080</t>
@@ -140,7 +140,7 @@
     <t>cefotaxime</t>
   </si>
   <si>
-    <t>07/22/2019 11:37:50</t>
+    <t>7/22/19 11:37:50</t>
   </si>
   <si>
     <t>Event date</t>
@@ -155,7 +155,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>07/22/2019 11:40:27</t>
+    <t>7/22/19 11:40:27</t>
   </si>
   <si>
     <t>Event month</t>
@@ -170,7 +170,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>07/22/2019 11:40:52</t>
+    <t>7/22/19 11:40:52</t>
   </si>
   <si>
     <t>Event year</t>
@@ -185,7 +185,7 @@
     <t>2009</t>
   </si>
   <si>
-    <t>07/22/2019 11:41:04</t>
+    <t>7/22/19 11:41:04</t>
   </si>
   <si>
     <t>Location:Country</t>
@@ -200,7 +200,7 @@
     <t>Tanzania</t>
   </si>
   <si>
-    <t>07/22/2019 11:41:43</t>
+    <t>7/22/19 11:41:43</t>
   </si>
   <si>
     <t>Patient:Age</t>
@@ -212,7 +212,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>07/22/2019 11:42:46</t>
+    <t>7/22/19 11:42:46</t>
   </si>
   <si>
     <t>2: 5695</t>
@@ -224,7 +224,7 @@
     <t>days</t>
   </si>
   <si>
-    <t>07/22/2019 11:42:54</t>
+    <t>7/22/19 11:42:54</t>
   </si>
   <si>
     <t>Patient:Sex</t>
@@ -236,7 +236,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>07/22/2019 11:43:06</t>
+    <t>7/22/19 11:43:06</t>
   </si>
   <si>
     <t>18141</t>
@@ -254,7 +254,7 @@
     <t>India</t>
   </si>
   <si>
-    <t>07/22/2019 11:48:19</t>
+    <t>7/22/19 11:48:19</t>
   </si>
   <si>
     <t>1: 1559</t>
@@ -266,7 +266,7 @@
     <t>Bacillus cereus</t>
   </si>
   <si>
-    <t>07/22/2019 11:48:40</t>
+    <t>7/22/19 11:48:40</t>
   </si>
   <si>
     <t>1: 2671</t>
@@ -278,10 +278,10 @@
     <t>51</t>
   </si>
   <si>
-    <t>07/22/2019 11:49:39</t>
-  </si>
-  <si>
-    <t>07/22/2019 11:50:23</t>
+    <t>7/22/19 11:49:39</t>
+  </si>
+  <si>
+    <t>7/22/19 11:50:23</t>
   </si>
   <si>
     <t>1: 2683</t>
@@ -293,7 +293,7 @@
     <t>male</t>
   </si>
   <si>
-    <t>07/22/2019 11:50:30</t>
+    <t>7/22/19 11:50:30</t>
   </si>
   <si>
     <t>Location:City</t>
@@ -308,7 +308,7 @@
     <t>Kullu</t>
   </si>
   <si>
-    <t>07/22/2019 11:51:01</t>
+    <t>7/22/19 11:51:01</t>
   </si>
   <si>
     <t>2: 2017</t>
@@ -320,7 +320,7 @@
     <t>mannitol</t>
   </si>
   <si>
-    <t>07/22/2019 11:51:51</t>
+    <t>7/22/19 11:51:51</t>
   </si>
   <si>
     <t>2: 2027</t>
@@ -332,7 +332,7 @@
     <t>ceftriaxone</t>
   </si>
   <si>
-    <t>07/22/2019 11:51:55</t>
+    <t>7/22/19 11:51:55</t>
   </si>
   <si>
     <t>2: 2040</t>
@@ -344,7 +344,7 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>07/22/2019 11:52:00</t>
+    <t>7/22/19 11:52:00</t>
   </si>
   <si>
     <t>2: 2054</t>
@@ -356,7 +356,7 @@
     <t>metronidazole</t>
   </si>
   <si>
-    <t>07/22/2019 11:52:04</t>
+    <t>7/22/19 11:52:04</t>
   </si>
   <si>
     <t>1: 279</t>
@@ -368,7 +368,7 @@
     <t>2016</t>
   </si>
   <si>
-    <t>07/22/2019 11:54:06</t>
+    <t>7/22/19 11:54:06</t>
   </si>
   <si>
     <t>20986</t>
@@ -386,7 +386,7 @@
     <t>HIV</t>
   </si>
   <si>
-    <t>07/22/2019 11:55:21</t>
+    <t>7/22/19 11:55:21</t>
   </si>
   <si>
     <t>16237</t>
@@ -406,7 +406,7 @@
 India</t>
   </si>
   <si>
-    <t>07/22/2019 11:56:18</t>
+    <t>7/22/19 11:56:18</t>
   </si>
   <si>
     <t>1: 683</t>
@@ -418,7 +418,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>07/22/2019 11:56:36</t>
+    <t>7/22/19 11:56:36</t>
   </si>
   <si>
     <t>1: 789</t>
@@ -430,16 +430,16 @@
     <t>Staphylococcus cohnii</t>
   </si>
   <si>
-    <t>07/22/2019 11:56:52</t>
+    <t>7/22/19 11:56:52</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>07/22/2019 11:57:15</t>
-  </si>
-  <si>
-    <t>07/22/2019 11:57:26</t>
+    <t>7/22/19 11:57:15</t>
+  </si>
+  <si>
+    <t>7/22/19 11:57:26</t>
   </si>
   <si>
     <t>B</t>
@@ -454,10 +454,10 @@
     <t>60</t>
   </si>
   <si>
-    <t>07/22/2019 11:57:36</t>
-  </si>
-  <si>
-    <t>07/22/2019 11:57:40</t>
+    <t>7/22/19 11:57:36</t>
+  </si>
+  <si>
+    <t>7/22/19 11:57:40</t>
   </si>
   <si>
     <t>1: 997</t>
@@ -466,10 +466,10 @@
     <t>1: 1000</t>
   </si>
   <si>
-    <t>07/22/2019 11:57:47</t>
-  </si>
-  <si>
-    <t>07/22/2019 11:57:50</t>
+    <t>7/22/19 11:57:47</t>
+  </si>
+  <si>
+    <t>7/22/19 11:57:50</t>
   </si>
   <si>
     <t>1: 1090</t>
@@ -481,10 +481,10 @@
     <t>Staphylococcus kloosii</t>
   </si>
   <si>
-    <t>07/22/2019 11:58:03</t>
-  </si>
-  <si>
-    <t>07/22/2019 11:58:10</t>
+    <t>7/22/19 11:58:03</t>
+  </si>
+  <si>
+    <t>7/22/19 11:58:10</t>
   </si>
   <si>
     <t>1: 1314</t>
@@ -496,13 +496,13 @@
     <t>Linezolid</t>
   </si>
   <si>
-    <t>07/22/2019 11:58:33</t>
-  </si>
-  <si>
-    <t>07/22/2019 11:58:40</t>
-  </si>
-  <si>
-    <t>07/22/2019 11:58:43</t>
+    <t>7/22/19 11:58:33</t>
+  </si>
+  <si>
+    <t>7/22/19 11:58:40</t>
+  </si>
+  <si>
+    <t>7/22/19 11:58:43</t>
   </si>
   <si>
     <t>1: 2786</t>
@@ -514,10 +514,10 @@
     <t>female</t>
   </si>
   <si>
-    <t>07/22/2019 11:59:59</t>
-  </si>
-  <si>
-    <t>07/22/2019 12:00:03</t>
+    <t>7/22/19 11:59:59</t>
+  </si>
+  <si>
+    <t>7/22/19 12:00:03</t>
   </si>
   <si>
     <t>1: 2879</t>
@@ -526,7 +526,7 @@
     <t>1: 2882</t>
   </si>
   <si>
-    <t>07/22/2019 12:03:45</t>
+    <t>7/22/19 12:03:45</t>
   </si>
   <si>
     <t>2: 399</t>
@@ -538,7 +538,7 @@
     <t>2010</t>
   </si>
   <si>
-    <t>07/22/2019 12:04:08</t>
+    <t>7/22/19 12:04:08</t>
   </si>
   <si>
     <t>2: 396</t>
@@ -550,7 +550,7 @@
     <t>02</t>
   </si>
   <si>
-    <t>07/22/2019 12:04:14</t>
+    <t>7/22/19 12:04:14</t>
   </si>
   <si>
     <t>2: 393</t>
@@ -562,19 +562,19 @@
     <t>22</t>
   </si>
   <si>
-    <t>07/22/2019 12:04:20</t>
-  </si>
-  <si>
-    <t>07/22/2019 12:04:26</t>
-  </si>
-  <si>
-    <t>07/22/2019 12:04:32</t>
-  </si>
-  <si>
-    <t>07/22/2019 12:04:46</t>
-  </si>
-  <si>
-    <t>07/22/2019 12:04:53</t>
+    <t>7/22/19 12:04:20</t>
+  </si>
+  <si>
+    <t>7/22/19 12:04:26</t>
+  </si>
+  <si>
+    <t>7/22/19 12:04:32</t>
+  </si>
+  <si>
+    <t>7/22/19 12:04:46</t>
+  </si>
+  <si>
+    <t>7/22/19 12:04:53</t>
   </si>
   <si>
     <t>15560</t>
@@ -592,7 +592,7 @@
     <t xml:space="preserve">Mnazi Mmoja Hospital </t>
   </si>
   <si>
-    <t>07/22/2019 12:08:42</t>
+    <t>7/22/19 12:08:42</t>
   </si>
   <si>
     <t>1: 1923</t>
@@ -605,7 +605,7 @@
 ago</t>
   </si>
   <si>
-    <t>07/22/2019 12:09:34</t>
+    <t>7/22/19 12:09:34</t>
   </si>
   <si>
     <t>2: 1661</t>
@@ -614,7 +614,7 @@
     <t>2: 1668</t>
   </si>
   <si>
-    <t>07/22/2019 12:10:51</t>
+    <t>7/22/19 12:10:51</t>
   </si>
   <si>
     <t>2: 2669</t>
@@ -626,7 +626,7 @@
     <t>March</t>
   </si>
   <si>
-    <t>07/22/2019 12:14:17</t>
+    <t>7/22/19 12:14:17</t>
   </si>
   <si>
     <t>2: 2725</t>
@@ -638,7 +638,7 @@
     <t>2012</t>
   </si>
   <si>
-    <t>07/22/2019 12:14:26</t>
+    <t>7/22/19 12:14:26</t>
   </si>
   <si>
     <t>Location:State/Province/District</t>
@@ -653,7 +653,7 @@
     <t>Unguja</t>
   </si>
   <si>
-    <t>07/22/2019 12:59:35</t>
+    <t>7/22/19 12:59:35</t>
   </si>
   <si>
     <t>2: 1651</t>
@@ -665,7 +665,7 @@
     <t>Zanzibar</t>
   </si>
   <si>
-    <t>07/22/2019 13:00:01</t>
+    <t>7/22/19 13:00:01</t>
   </si>
   <si>
     <t>6: 1051</t>
@@ -678,7 +678,7 @@
 methoxazole</t>
   </si>
   <si>
-    <t>07/22/2019 13:03:29</t>
+    <t>7/22/19 13:03:29</t>
   </si>
   <si>
     <t>Patient:Symptoms</t>
@@ -693,7 +693,7 @@
     <t>bloodstream infections</t>
   </si>
   <si>
-    <t>07/22/2019 13:04:42</t>
+    <t>7/22/19 13:04:42</t>
   </si>
   <si>
     <t>Patient:Outcome</t>
@@ -708,7 +708,7 @@
     <t>Death</t>
   </si>
   <si>
-    <t>07/22/2019 13:05:20</t>
+    <t>7/22/19 13:05:20</t>
   </si>
   <si>
     <t>1: 2513</t>
@@ -720,7 +720,7 @@
     <t xml:space="preserve">We report the first case of intratumoral brain abscess by B. cereus, which most probably had a portal of entry from an intravenous catheter. </t>
   </si>
   <si>
-    <t>07/22/2019 13:06:34</t>
+    <t>7/22/19 13:06:34</t>
   </si>
   <si>
     <t>2: 2261</t>
@@ -732,7 +732,7 @@
     <t xml:space="preserve"> improved dramatically</t>
   </si>
   <si>
-    <t>07/22/2019 13:08:12</t>
+    <t>7/22/19 13:08:12</t>
   </si>
   <si>
     <t>2: 2206</t>
@@ -745,10 +745,10 @@
 admission</t>
   </si>
   <si>
-    <t>07/22/2019 13:10:06</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:10:09</t>
+    <t>7/22/19 13:10:06</t>
+  </si>
+  <si>
+    <t>7/22/19 13:10:09</t>
   </si>
   <si>
     <t>14709</t>
@@ -763,7 +763,7 @@
     <t>Beirut</t>
   </si>
   <si>
-    <t>07/22/2019 13:10:40</t>
+    <t>7/22/19 13:10:40</t>
   </si>
   <si>
     <t>1: 991</t>
@@ -772,7 +772,7 @@
     <t>Lebanon</t>
   </si>
   <si>
-    <t>07/22/2019 13:10:45</t>
+    <t>7/22/19 13:10:45</t>
   </si>
   <si>
     <t>2: 1984</t>
@@ -784,7 +784,7 @@
     <t>78</t>
   </si>
   <si>
-    <t>07/22/2019 13:12:23</t>
+    <t>7/22/19 13:12:23</t>
   </si>
   <si>
     <t>2: 3545</t>
@@ -796,7 +796,7 @@
     <t>66</t>
   </si>
   <si>
-    <t>07/22/2019 13:12:38</t>
+    <t>7/22/19 13:12:38</t>
   </si>
   <si>
     <t>3: 579</t>
@@ -805,7 +805,7 @@
     <t>3: 580</t>
   </si>
   <si>
-    <t>07/22/2019 13:12:45</t>
+    <t>7/22/19 13:12:45</t>
   </si>
   <si>
     <t>2: 3557</t>
@@ -814,7 +814,7 @@
     <t>2: 3560</t>
   </si>
   <si>
-    <t>07/22/2019 13:12:57</t>
+    <t>7/22/19 13:12:57</t>
   </si>
   <si>
     <t>Patient:Comorbidities</t>
@@ -830,7 +830,7 @@
 obstructive pulmonary disease</t>
   </si>
   <si>
-    <t>07/22/2019 13:13:14</t>
+    <t>7/22/19 13:13:14</t>
   </si>
   <si>
     <t>2: 2069</t>
@@ -843,7 +843,7 @@
 lymphocytic leukemia</t>
   </si>
   <si>
-    <t>07/22/2019 13:13:26</t>
+    <t>7/22/19 13:13:26</t>
   </si>
   <si>
     <t>2: 2119</t>
@@ -856,7 +856,7 @@
 ican University of Beirut Medical Center (</t>
   </si>
   <si>
-    <t>07/22/2019 13:13:50</t>
+    <t>7/22/19 13:13:50</t>
   </si>
   <si>
     <t>2: 2181</t>
@@ -868,7 +868,7 @@
     <t>fever</t>
   </si>
   <si>
-    <t>07/22/2019 13:13:58</t>
+    <t>7/22/19 13:13:58</t>
   </si>
   <si>
     <t>2: 2199</t>
@@ -880,7 +880,7 @@
     <t>cough</t>
   </si>
   <si>
-    <t>07/22/2019 13:14:03</t>
+    <t>7/22/19 13:14:03</t>
   </si>
   <si>
     <t>2: 2210</t>
@@ -892,7 +892,7 @@
     <t>dyspnea</t>
   </si>
   <si>
-    <t>07/22/2019 13:14:07</t>
+    <t>7/22/19 13:14:07</t>
   </si>
   <si>
     <t>2: 2309</t>
@@ -904,7 +904,7 @@
     <t>levofloxacin</t>
   </si>
   <si>
-    <t>07/22/2019 13:14:31</t>
+    <t>7/22/19 13:14:31</t>
   </si>
   <si>
     <t>2: 2327</t>
@@ -916,7 +916,7 @@
     <t>ciprofloxacin</t>
   </si>
   <si>
-    <t>07/22/2019 13:14:35</t>
+    <t>7/22/19 13:14:35</t>
   </si>
   <si>
     <t>2: 2935</t>
@@ -928,7 +928,7 @@
     <t>cefepime</t>
   </si>
   <si>
-    <t>07/22/2019 13:15:23</t>
+    <t>7/22/19 13:15:23</t>
   </si>
   <si>
     <t>2: 2969</t>
@@ -940,7 +940,7 @@
     <t>clarithromycin</t>
   </si>
   <si>
-    <t>07/22/2019 13:15:28</t>
+    <t>7/22/19 13:15:28</t>
   </si>
   <si>
     <t>2: 3153</t>
@@ -952,7 +952,7 @@
     <t>penicillin</t>
   </si>
   <si>
-    <t>07/22/2019 13:15:35</t>
+    <t>7/22/19 13:15:35</t>
   </si>
   <si>
     <t>2: 3246</t>
@@ -961,7 +961,7 @@
     <t>2: 3257</t>
   </si>
   <si>
-    <t>07/22/2019 13:15:41</t>
+    <t>7/22/19 13:15:41</t>
   </si>
   <si>
     <t>2: 3406</t>
@@ -973,7 +973,7 @@
     <t>mproved</t>
   </si>
   <si>
-    <t>07/22/2019 13:15:52</t>
+    <t>7/22/19 13:15:52</t>
   </si>
   <si>
     <t>2: 3617</t>
@@ -982,7 +982,7 @@
     <t>2: 3621</t>
   </si>
   <si>
-    <t>07/22/2019 13:16:01</t>
+    <t>7/22/19 13:16:01</t>
   </si>
   <si>
     <t>2: 3627</t>
@@ -991,7 +991,7 @@
     <t>2: 3633</t>
   </si>
   <si>
-    <t>07/22/2019 13:16:06</t>
+    <t>7/22/19 13:16:06</t>
   </si>
   <si>
     <t>2: 3665</t>
@@ -1004,7 +1004,7 @@
 pneumoni</t>
   </si>
   <si>
-    <t>07/22/2019 13:16:17</t>
+    <t>7/22/19 13:16:17</t>
   </si>
   <si>
     <t>2: 4780</t>
@@ -1013,7 +1013,7 @@
     <t>2: 4789</t>
   </si>
   <si>
-    <t>07/22/2019 13:17:13</t>
+    <t>7/22/19 13:17:13</t>
   </si>
   <si>
     <t>2: 4849</t>
@@ -1022,7 +1022,7 @@
     <t>2: 4859</t>
   </si>
   <si>
-    <t>07/22/2019 13:17:18</t>
+    <t>7/22/19 13:17:18</t>
   </si>
   <si>
     <t>2: 4878</t>
@@ -1031,7 +1031,7 @@
     <t>2: 4889</t>
   </si>
   <si>
-    <t>07/22/2019 13:17:21</t>
+    <t>7/22/19 13:17:21</t>
   </si>
   <si>
     <t>3: 53</t>
@@ -1043,7 +1043,7 @@
     <t>clindamycin</t>
   </si>
   <si>
-    <t>07/22/2019 13:17:25</t>
+    <t>7/22/19 13:17:25</t>
   </si>
   <si>
     <t>3: 66</t>
@@ -1055,7 +1055,7 @@
     <t>erythromycin</t>
   </si>
   <si>
-    <t>07/22/2019 13:17:29</t>
+    <t>7/22/19 13:17:29</t>
   </si>
   <si>
     <t>3: 80</t>
@@ -1067,7 +1067,7 @@
     <t>tetracycline</t>
   </si>
   <si>
-    <t>07/22/2019 13:17:35</t>
+    <t>7/22/19 13:17:35</t>
   </si>
   <si>
     <t>3: 99</t>
@@ -1079,7 +1079,7 @@
     <t>trimethoprim/sulfamethoxazole</t>
   </si>
   <si>
-    <t>07/22/2019 13:17:41</t>
+    <t>7/22/19 13:17:41</t>
   </si>
   <si>
     <t>3: 478</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve"> lung carcinoma</t>
   </si>
   <si>
-    <t>07/22/2019 13:18:03</t>
+    <t>7/22/19 13:18:03</t>
   </si>
   <si>
     <t>3: 543</t>
@@ -1104,7 +1104,7 @@
 later.</t>
   </si>
   <si>
-    <t>07/22/2019 13:18:24</t>
+    <t>7/22/19 13:18:24</t>
   </si>
   <si>
     <t>3: 640</t>
@@ -1116,7 +1116,7 @@
     <t>watery diarrhea</t>
   </si>
   <si>
-    <t>07/22/2019 13:18:37</t>
+    <t>7/22/19 13:18:37</t>
   </si>
   <si>
     <t>3: 744</t>
@@ -1128,7 +1128,7 @@
     <t>cellulitis</t>
   </si>
   <si>
-    <t>07/22/2019 13:18:44</t>
+    <t>7/22/19 13:18:44</t>
   </si>
   <si>
     <t>3: 819</t>
@@ -1140,7 +1140,7 @@
     <t>lung cancer</t>
   </si>
   <si>
-    <t>07/22/2019 13:19:05</t>
+    <t>7/22/19 13:19:05</t>
   </si>
   <si>
     <t>3: 914</t>
@@ -1149,7 +1149,7 @@
     <t>3: 920</t>
   </si>
   <si>
-    <t>07/22/2019 13:19:12</t>
+    <t>7/22/19 13:19:12</t>
   </si>
   <si>
     <t>3: 940</t>
@@ -1158,7 +1158,7 @@
     <t>3: 944</t>
   </si>
   <si>
-    <t>07/22/2019 13:19:18</t>
+    <t>7/22/19 13:19:18</t>
   </si>
   <si>
     <t>3: 951</t>
@@ -1170,7 +1170,7 @@
     <t>blood tinged sputum</t>
   </si>
   <si>
-    <t>07/22/2019 13:19:26</t>
+    <t>7/22/19 13:19:26</t>
   </si>
   <si>
     <t>3: 2061</t>
@@ -1179,7 +1179,7 @@
     <t>3: 2070</t>
   </si>
   <si>
-    <t>07/22/2019 13:19:59</t>
+    <t>7/22/19 13:19:59</t>
   </si>
   <si>
     <t>3: 2132</t>
@@ -1188,7 +1188,7 @@
     <t>3: 2143</t>
   </si>
   <si>
-    <t>07/22/2019 13:20:03</t>
+    <t>7/22/19 13:20:03</t>
   </si>
   <si>
     <t>3: 2308</t>
@@ -1200,7 +1200,7 @@
     <t>ceftazidime</t>
   </si>
   <si>
-    <t>07/22/2019 13:20:37</t>
+    <t>7/22/19 13:20:37</t>
   </si>
   <si>
     <t>3: 2340</t>
@@ -1212,7 +1212,7 @@
     <t>vancomycin</t>
   </si>
   <si>
-    <t>07/22/2019 13:20:40</t>
+    <t>7/22/19 13:20:40</t>
   </si>
   <si>
     <t>3: 2435</t>
@@ -1221,7 +1221,7 @@
     <t>3: 2445</t>
   </si>
   <si>
-    <t>07/22/2019 13:20:45</t>
+    <t>7/22/19 13:20:45</t>
   </si>
   <si>
     <t>3: 2469</t>
@@ -1233,7 +1233,7 @@
     <t>TMP/SMX</t>
   </si>
   <si>
-    <t>07/22/2019 13:20:51</t>
+    <t>7/22/19 13:20:51</t>
   </si>
   <si>
     <t>3: 2564</t>
@@ -1245,46 +1245,46 @@
     <t>died</t>
   </si>
   <si>
-    <t>07/22/2019 13:21:01</t>
+    <t>7/22/19 13:21:01</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>07/22/2019 13:21:06</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:21:12</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:21:19</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:21:26</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:21:41</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:22:05</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:22:12</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:22:19</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:22:24</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:22:30</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:22:36</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:22:41</t>
+    <t>7/22/19 13:21:06</t>
+  </si>
+  <si>
+    <t>7/22/19 13:21:12</t>
+  </si>
+  <si>
+    <t>7/22/19 13:21:19</t>
+  </si>
+  <si>
+    <t>7/22/19 13:21:26</t>
+  </si>
+  <si>
+    <t>7/22/19 13:21:41</t>
+  </si>
+  <si>
+    <t>7/22/19 13:22:05</t>
+  </si>
+  <si>
+    <t>7/22/19 13:22:12</t>
+  </si>
+  <si>
+    <t>7/22/19 13:22:19</t>
+  </si>
+  <si>
+    <t>7/22/19 13:22:24</t>
+  </si>
+  <si>
+    <t>7/22/19 13:22:30</t>
+  </si>
+  <si>
+    <t>7/22/19 13:22:36</t>
+  </si>
+  <si>
+    <t>7/22/19 13:22:41</t>
   </si>
   <si>
     <t>3: 591</t>
@@ -1293,43 +1293,43 @@
     <t>3: 594</t>
   </si>
   <si>
-    <t>07/22/2019 13:22:53</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:23:08</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:23:14</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:23:23</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:23:29</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:23:55</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:24:03</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:24:16</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:24:27</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:24:34</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:24:41</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:24:58</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:25:46</t>
+    <t>7/22/19 13:22:53</t>
+  </si>
+  <si>
+    <t>7/22/19 13:23:08</t>
+  </si>
+  <si>
+    <t>7/22/19 13:23:14</t>
+  </si>
+  <si>
+    <t>7/22/19 13:23:23</t>
+  </si>
+  <si>
+    <t>7/22/19 13:23:29</t>
+  </si>
+  <si>
+    <t>7/22/19 13:23:55</t>
+  </si>
+  <si>
+    <t>7/22/19 13:24:03</t>
+  </si>
+  <si>
+    <t>7/22/19 13:24:16</t>
+  </si>
+  <si>
+    <t>7/22/19 13:24:27</t>
+  </si>
+  <si>
+    <t>7/22/19 13:24:34</t>
+  </si>
+  <si>
+    <t>7/22/19 13:24:41</t>
+  </si>
+  <si>
+    <t>7/22/19 13:24:58</t>
+  </si>
+  <si>
+    <t>7/22/19 13:25:46</t>
   </si>
   <si>
     <t>2: 1996</t>
@@ -1338,19 +1338,19 @@
     <t>2: 1999</t>
   </si>
   <si>
-    <t>07/22/2019 13:25:57</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:26:00</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:26:07</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:26:17</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:26:25</t>
+    <t>7/22/19 13:25:57</t>
+  </si>
+  <si>
+    <t>7/22/19 13:26:00</t>
+  </si>
+  <si>
+    <t>7/22/19 13:26:07</t>
+  </si>
+  <si>
+    <t>7/22/19 13:26:17</t>
+  </si>
+  <si>
+    <t>7/22/19 13:26:25</t>
   </si>
   <si>
     <t>1: 566</t>
@@ -1359,7 +1359,7 @@
     <t>1: 569</t>
   </si>
   <si>
-    <t>07/22/2019 13:47:35</t>
+    <t>7/22/19 13:47:35</t>
   </si>
   <si>
     <t>1: 558</t>
@@ -1371,7 +1371,7 @@
     <t>January</t>
   </si>
   <si>
-    <t>07/22/2019 13:47:40</t>
+    <t>7/22/19 13:47:40</t>
   </si>
   <si>
     <t>1: 556</t>
@@ -1380,7 +1380,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>07/22/2019 13:47:47</t>
+    <t>7/22/19 13:47:47</t>
   </si>
   <si>
     <t>7761</t>
@@ -1395,10 +1395,10 @@
     <t>30</t>
   </si>
   <si>
-    <t>07/22/2019 13:56:49</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:56:53</t>
+    <t>7/22/19 13:56:49</t>
+  </si>
+  <si>
+    <t>7/22/19 13:56:53</t>
   </si>
   <si>
     <t>1: 3066</t>
@@ -1410,10 +1410,10 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>07/22/2019 13:57:09</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:57:12</t>
+    <t>7/22/19 13:57:09</t>
+  </si>
+  <si>
+    <t>7/22/19 13:57:12</t>
   </si>
   <si>
     <t>1: 3060</t>
@@ -1425,10 +1425,10 @@
     <t>Graz</t>
   </si>
   <si>
-    <t>07/22/2019 13:57:19</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:57:26</t>
+    <t>7/22/19 13:57:19</t>
+  </si>
+  <si>
+    <t>7/22/19 13:57:26</t>
   </si>
   <si>
     <t>1: 3036</t>
@@ -1441,7 +1441,7 @@
 pital</t>
   </si>
   <si>
-    <t>07/22/2019 13:57:35</t>
+    <t>7/22/19 13:57:35</t>
   </si>
   <si>
     <t>Location:Place traveled to</t>
@@ -1456,7 +1456,7 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>07/22/2019 13:58:12</t>
+    <t>7/22/19 13:58:12</t>
   </si>
   <si>
     <t>1: 3366</t>
@@ -1465,13 +1465,13 @@
     <t>1: 3370</t>
   </si>
   <si>
-    <t>07/22/2019 13:58:24</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:58:28</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:58:35</t>
+    <t>7/22/19 13:58:24</t>
+  </si>
+  <si>
+    <t>7/22/19 13:58:28</t>
+  </si>
+  <si>
+    <t>7/22/19 13:58:35</t>
   </si>
   <si>
     <t>1: 3521</t>
@@ -1483,10 +1483,10 @@
     <t>K. pneumoniae</t>
   </si>
   <si>
-    <t>07/22/2019 13:58:46</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:58:54</t>
+    <t>7/22/19 13:58:46</t>
+  </si>
+  <si>
+    <t>7/22/19 13:58:54</t>
   </si>
   <si>
     <t>1: 3927</t>
@@ -1498,10 +1498,10 @@
     <t>August</t>
   </si>
   <si>
-    <t>07/22/2019 13:59:10</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:59:15</t>
+    <t>7/22/19 13:59:10</t>
+  </si>
+  <si>
+    <t>7/22/19 13:59:15</t>
   </si>
   <si>
     <t>1: 3934</t>
@@ -1510,10 +1510,10 @@
     <t>1: 3937</t>
   </si>
   <si>
-    <t>07/22/2019 13:59:19</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:59:25</t>
+    <t>7/22/19 13:59:19</t>
+  </si>
+  <si>
+    <t>7/22/19 13:59:25</t>
   </si>
   <si>
     <t>1: 3953</t>
@@ -1525,10 +1525,10 @@
     <t>14</t>
   </si>
   <si>
-    <t>07/22/2019 13:59:39</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:59:42</t>
+    <t>7/22/19 13:59:39</t>
+  </si>
+  <si>
+    <t>7/22/19 13:59:42</t>
   </si>
   <si>
     <t>1: 3967</t>
@@ -1540,10 +1540,10 @@
     <t>boy</t>
   </si>
   <si>
-    <t>07/22/2019 13:59:47</t>
-  </si>
-  <si>
-    <t>07/22/2019 13:59:50</t>
+    <t>7/22/19 13:59:47</t>
+  </si>
+  <si>
+    <t>7/22/19 13:59:50</t>
   </si>
   <si>
     <t>1: 3976</t>
@@ -1555,7 +1555,7 @@
     <t>Kosovo</t>
   </si>
   <si>
-    <t>07/22/2019 14:00:11</t>
+    <t>7/22/19 14:00:11</t>
   </si>
   <si>
     <t>1: 4043</t>
@@ -1568,7 +1568,7 @@
 versity Hospital</t>
   </si>
   <si>
-    <t>07/22/2019 14:00:23</t>
+    <t>7/22/19 14:00:23</t>
   </si>
   <si>
     <t>1: 4093</t>
@@ -1577,7 +1577,7 @@
     <t>1: 4096</t>
   </si>
   <si>
-    <t>07/22/2019 14:00:36</t>
+    <t>7/22/19 14:00:36</t>
   </si>
   <si>
     <t>1: 4099</t>
@@ -1586,7 +1586,7 @@
     <t>1: 4105</t>
   </si>
   <si>
-    <t>07/22/2019 14:00:42</t>
+    <t>7/22/19 14:00:42</t>
   </si>
   <si>
     <t>1: 4207</t>
@@ -1598,7 +1598,7 @@
     <t>Pristina</t>
   </si>
   <si>
-    <t>07/22/2019 14:00:53</t>
+    <t>7/22/19 14:00:53</t>
   </si>
   <si>
     <t>1: 4387</t>
@@ -1607,22 +1607,22 @@
     <t>1: 4399</t>
   </si>
   <si>
-    <t>07/22/2019 14:01:19</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:01:28</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:02:57</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:03:02</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:03:07</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:03:13</t>
+    <t>7/22/19 14:01:19</t>
+  </si>
+  <si>
+    <t>7/22/19 14:01:28</t>
+  </si>
+  <si>
+    <t>7/22/19 14:02:57</t>
+  </si>
+  <si>
+    <t>7/22/19 14:03:02</t>
+  </si>
+  <si>
+    <t>7/22/19 14:03:07</t>
+  </si>
+  <si>
+    <t>7/22/19 14:03:13</t>
   </si>
   <si>
     <t>1: 2854</t>
@@ -1634,7 +1634,7 @@
     <t>aztreonam</t>
   </si>
   <si>
-    <t>07/22/2019 14:06:06</t>
+    <t>7/22/19 14:06:06</t>
   </si>
   <si>
     <t>1: 2865</t>
@@ -1646,7 +1646,7 @@
     <t>ciprofl oxacin</t>
   </si>
   <si>
-    <t>07/22/2019 14:06:16</t>
+    <t>7/22/19 14:06:16</t>
   </si>
   <si>
     <t>1: 2885</t>
@@ -1659,16 +1659,16 @@
 tamicin</t>
   </si>
   <si>
-    <t>07/22/2019 14:06:22</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:06:27</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:06:46</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:06:51</t>
+    <t>7/22/19 14:06:22</t>
+  </si>
+  <si>
+    <t>7/22/19 14:06:27</t>
+  </si>
+  <si>
+    <t>7/22/19 14:06:46</t>
+  </si>
+  <si>
+    <t>7/22/19 14:06:51</t>
   </si>
   <si>
     <t>1: 3877</t>
@@ -1680,10 +1680,10 @@
     <t>released</t>
   </si>
   <si>
-    <t>07/22/2019 14:07:40</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:07:43</t>
+    <t>7/22/19 14:07:40</t>
+  </si>
+  <si>
+    <t>7/22/19 14:07:43</t>
   </si>
   <si>
     <t>1: 4587</t>
@@ -1697,10 +1697,10 @@
 remained hospitalized.</t>
   </si>
   <si>
-    <t>07/22/2019 14:07:55</t>
-  </si>
-  <si>
-    <t>07/22/2019 14:08:01</t>
+    <t>7/22/19 14:07:55</t>
+  </si>
+  <si>
+    <t>7/22/19 14:08:01</t>
   </si>
   <si>
     <t>4717</t>
@@ -1715,7 +1715,7 @@
     <t>p</t>
   </si>
   <si>
-    <t>07/22/2019 14:25:03</t>
+    <t>7/22/19 14:25:03</t>
   </si>
   <si>
     <t>2371</t>
@@ -1730,7 +1730,7 @@
     <t>Mozambique</t>
   </si>
   <si>
-    <t>07/22/2019 14:31:38</t>
+    <t>7/22/19 14:31:38</t>
   </si>
   <si>
     <t>2: 2014</t>
@@ -1742,7 +1742,7 @@
     <t>Mayotte</t>
   </si>
   <si>
-    <t>07/22/2019 14:31:44</t>
+    <t>7/22/19 14:31:44</t>
   </si>
   <si>
     <t>Bacteria:Resistance Marker</t>
@@ -1757,7 +1757,7 @@
     <t>OXA-58-producing</t>
   </si>
   <si>
-    <t>07/22/2019 14:33:31</t>
+    <t>7/22/19 14:33:31</t>
   </si>
   <si>
     <t>2: 1825</t>
@@ -1769,7 +1769,7 @@
     <t>A. baumannii</t>
   </si>
   <si>
-    <t>07/22/2019 14:34:01</t>
+    <t>7/22/19 14:34:01</t>
   </si>
   <si>
     <t>2: 2130</t>
@@ -1781,7 +1781,7 @@
     <t>carbapenem</t>
   </si>
   <si>
-    <t>07/22/2019 14:34:36</t>
+    <t>7/22/19 14:34:36</t>
   </si>
   <si>
     <t>2: 5205</t>
@@ -1790,7 +1790,7 @@
     <t>2: 5208</t>
   </si>
   <si>
-    <t>07/22/2019 14:38:12</t>
+    <t>7/22/19 14:38:12</t>
   </si>
   <si>
     <t>2: 5195</t>
@@ -1802,7 +1802,7 @@
     <t>September</t>
   </si>
   <si>
-    <t>07/22/2019 14:38:17</t>
+    <t>7/22/19 14:38:17</t>
   </si>
   <si>
     <t>2: 5193</t>
@@ -1811,7 +1811,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>07/22/2019 14:38:25</t>
+    <t>7/22/19 14:38:25</t>
   </si>
   <si>
     <t>2: 1808</t>
@@ -1823,7 +1823,7 @@
     <t>OXA-58</t>
   </si>
   <si>
-    <t>07/22/2019 14:39:46</t>
+    <t>7/22/19 14:39:46</t>
   </si>
   <si>
     <t>9075</t>
@@ -1838,7 +1838,7 @@
     <t>metallo-_x0002_-lactamase (NDM-1)-producing</t>
   </si>
   <si>
-    <t>07/22/2019 16:14:38</t>
+    <t>7/22/19 16:14:38</t>
   </si>
   <si>
     <t>1: 918</t>
@@ -1850,7 +1850,7 @@
     <t>Citrobacter freundii</t>
   </si>
   <si>
-    <t>07/22/2019 16:15:31</t>
+    <t>7/22/19 16:15:31</t>
   </si>
   <si>
     <t>1: 939</t>
@@ -1862,16 +1862,16 @@
     <t>GB032</t>
   </si>
   <si>
-    <t>07/22/2019 16:15:50</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:20:27</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:20:35</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:20:52</t>
+    <t>7/22/19 16:15:50</t>
+  </si>
+  <si>
+    <t>7/22/19 16:20:27</t>
+  </si>
+  <si>
+    <t>7/22/19 16:20:35</t>
+  </si>
+  <si>
+    <t>7/22/19 16:20:52</t>
   </si>
   <si>
     <t>1: 946</t>
@@ -1883,10 +1883,10 @@
     <t>Escherichia coli</t>
   </si>
   <si>
-    <t>07/22/2019 16:22:31</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:22:36</t>
+    <t>7/22/19 16:22:31</t>
+  </si>
+  <si>
+    <t>7/22/19 16:22:36</t>
   </si>
   <si>
     <t>1: 963</t>
@@ -1898,10 +1898,10 @@
     <t>GB102</t>
   </si>
   <si>
-    <t>07/22/2019 16:22:41</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:22:48</t>
+    <t>7/22/19 16:22:41</t>
+  </si>
+  <si>
+    <t>7/22/19 16:22:48</t>
   </si>
   <si>
     <t>1: 975</t>
@@ -1910,10 +1910,10 @@
     <t>Acinetobacter baumannii</t>
   </si>
   <si>
-    <t>07/22/2019 16:22:59</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:23:04</t>
+    <t>7/22/19 16:22:59</t>
+  </si>
+  <si>
+    <t>7/22/19 16:23:04</t>
   </si>
   <si>
     <t>1: 999</t>
@@ -1925,7 +1925,7 @@
     <t>GB661</t>
   </si>
   <si>
-    <t>07/22/2019 16:23:09</t>
+    <t>7/22/19 16:23:09</t>
   </si>
   <si>
     <t>Notes</t>
@@ -1940,7 +1940,7 @@
     <t>TABLE 1</t>
   </si>
   <si>
-    <t>07/22/2019 16:23:36</t>
+    <t>7/22/19 16:23:36</t>
   </si>
   <si>
     <t>1: 2825</t>
@@ -1952,7 +1952,7 @@
     <t>52</t>
   </si>
   <si>
-    <t>07/22/2019 16:24:52</t>
+    <t>7/22/19 16:24:52</t>
   </si>
   <si>
     <t>1: 2845</t>
@@ -1961,7 +1961,7 @@
     <t>1: 2848</t>
   </si>
   <si>
-    <t>07/22/2019 16:24:57</t>
+    <t>7/22/19 16:24:57</t>
   </si>
   <si>
     <t>1: 3081</t>
@@ -1973,7 +1973,7 @@
     <t>July</t>
   </si>
   <si>
-    <t>07/22/2019 16:25:57</t>
+    <t>7/22/19 16:25:57</t>
   </si>
   <si>
     <t>1: 3086</t>
@@ -1982,7 +1982,7 @@
     <t>1: 3089</t>
   </si>
   <si>
-    <t>07/22/2019 16:26:07</t>
+    <t>7/22/19 16:26:07</t>
   </si>
   <si>
     <t>1: 3047</t>
@@ -1994,13 +1994,13 @@
     <t>Karachi</t>
   </si>
   <si>
-    <t>07/22/2019 16:26:52</t>
+    <t>7/22/19 16:26:52</t>
   </si>
   <si>
     <t>1: 3056</t>
   </si>
   <si>
-    <t>07/22/2019 16:26:58</t>
+    <t>7/22/19 16:26:58</t>
   </si>
   <si>
     <t>1: 2927</t>
@@ -2009,7 +2009,7 @@
     <t>1: 2934</t>
   </si>
   <si>
-    <t>07/22/2019 16:27:09</t>
+    <t>7/22/19 16:27:09</t>
   </si>
   <si>
     <t>1: 3250</t>
@@ -2021,7 +2021,7 @@
     <t>China</t>
   </si>
   <si>
-    <t>07/22/2019 16:27:17</t>
+    <t>7/22/19 16:27:17</t>
   </si>
   <si>
     <t>1: 3241</t>
@@ -2033,7 +2033,7 @@
     <t>Sichuan</t>
   </si>
   <si>
-    <t>07/22/2019 16:27:29</t>
+    <t>7/22/19 16:27:29</t>
   </si>
   <si>
     <t>1: 3272</t>
@@ -2046,7 +2046,7 @@
 tract infection (</t>
   </si>
   <si>
-    <t>07/22/2019 16:27:52</t>
+    <t>7/22/19 16:27:52</t>
   </si>
   <si>
     <t>1: 3345</t>
@@ -2055,7 +2055,7 @@
     <t>1: 3349</t>
   </si>
   <si>
-    <t>07/22/2019 16:28:02</t>
+    <t>7/22/19 16:28:02</t>
   </si>
   <si>
     <t>1: 3352</t>
@@ -2067,7 +2067,7 @@
     <t>lack of appetite</t>
   </si>
   <si>
-    <t>07/22/2019 16:28:09</t>
+    <t>7/22/19 16:28:09</t>
   </si>
   <si>
     <t>2: 124</t>
@@ -2080,10 +2080,10 @@
 enems</t>
   </si>
   <si>
-    <t>07/22/2019 16:28:43</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:29:07</t>
+    <t>7/22/19 16:28:43</t>
+  </si>
+  <si>
+    <t>7/22/19 16:29:07</t>
   </si>
   <si>
     <t>2: 534</t>
@@ -2095,10 +2095,10 @@
     <t>carbapenems</t>
   </si>
   <si>
-    <t>07/22/2019 16:29:47</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:29:54</t>
+    <t>7/22/19 16:29:47</t>
+  </si>
+  <si>
+    <t>7/22/19 16:29:54</t>
   </si>
   <si>
     <t>2: 777</t>
@@ -2111,10 +2111,10 @@
 bapenem</t>
   </si>
   <si>
-    <t>07/22/2019 16:30:21</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:30:25</t>
+    <t>7/22/19 16:30:21</t>
+  </si>
+  <si>
+    <t>7/22/19 16:30:25</t>
   </si>
   <si>
     <t>2: 1435</t>
@@ -2123,7 +2123,7 @@
     <t>2: 1444</t>
   </si>
   <si>
-    <t>07/22/2019 16:30:38</t>
+    <t>7/22/19 16:30:38</t>
   </si>
   <si>
     <t>2: 1447</t>
@@ -2135,7 +2135,7 @@
     <t>cefoxitin</t>
   </si>
   <si>
-    <t>07/22/2019 16:30:41</t>
+    <t>7/22/19 16:30:41</t>
   </si>
   <si>
     <t>2: 1458</t>
@@ -2144,7 +2144,7 @@
     <t>2: 1468</t>
   </si>
   <si>
-    <t>07/22/2019 16:30:45</t>
+    <t>7/22/19 16:30:45</t>
   </si>
   <si>
     <t>2: 1471</t>
@@ -2153,7 +2153,7 @@
     <t>2: 1480</t>
   </si>
   <si>
-    <t>07/22/2019 16:30:48</t>
+    <t>7/22/19 16:30:48</t>
   </si>
   <si>
     <t>2: 1483</t>
@@ -2166,7 +2166,7 @@
 nam</t>
   </si>
   <si>
-    <t>07/22/2019 16:31:00</t>
+    <t>7/22/19 16:31:00</t>
   </si>
   <si>
     <t>2: 1497</t>
@@ -2175,7 +2175,7 @@
     <t>2: 1504</t>
   </si>
   <si>
-    <t>07/22/2019 16:31:06</t>
+    <t>7/22/19 16:31:06</t>
   </si>
   <si>
     <t>2: 1507</t>
@@ -2187,7 +2187,7 @@
     <t>imipenem</t>
   </si>
   <si>
-    <t>07/22/2019 16:31:10</t>
+    <t>7/22/19 16:31:10</t>
   </si>
   <si>
     <t>2: 1517</t>
@@ -2199,7 +2199,7 @@
     <t>meropenem</t>
   </si>
   <si>
-    <t>07/22/2019 16:31:14</t>
+    <t>7/22/19 16:31:14</t>
   </si>
   <si>
     <t>2: 1532</t>
@@ -2211,7 +2211,7 @@
     <t>ertapenem</t>
   </si>
   <si>
-    <t>07/22/2019 16:31:20</t>
+    <t>7/22/19 16:31:20</t>
   </si>
   <si>
     <t>MIC</t>
@@ -2226,43 +2226,43 @@
     <t>f _x0002_32 _x0003_g/ml</t>
   </si>
   <si>
-    <t>07/22/2019 16:31:31</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:31:36</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:31:41</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:31:45</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:31:48</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:31:51</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:31:55</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:04</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:09</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:12</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:15</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:19</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:23</t>
+    <t>7/22/19 16:31:31</t>
+  </si>
+  <si>
+    <t>7/22/19 16:31:36</t>
+  </si>
+  <si>
+    <t>7/22/19 16:31:41</t>
+  </si>
+  <si>
+    <t>7/22/19 16:31:45</t>
+  </si>
+  <si>
+    <t>7/22/19 16:31:48</t>
+  </si>
+  <si>
+    <t>7/22/19 16:31:51</t>
+  </si>
+  <si>
+    <t>7/22/19 16:31:55</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:04</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:09</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:12</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:15</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:19</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:23</t>
   </si>
   <si>
     <t>2: 1578</t>
@@ -2271,31 +2271,31 @@
     <t>_x0002_32 _x0003_g/ml</t>
   </si>
   <si>
-    <t>07/22/2019 16:32:29</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:35</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:38</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:41</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:45</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:48</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:51</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:55</t>
-  </si>
-  <si>
-    <t>07/22/2019 16:32:58</t>
+    <t>7/22/19 16:32:29</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:35</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:38</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:41</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:45</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:48</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:51</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:55</t>
+  </si>
+  <si>
+    <t>7/22/19 16:32:58</t>
   </si>
   <si>
     <t>23647</t>
@@ -2310,7 +2310,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>07/29/2019 10:47:19</t>
+    <t>7/29/19 10:47:19</t>
   </si>
   <si>
     <t>1: 1801</t>
@@ -2322,7 +2322,7 @@
     <t>woman</t>
   </si>
   <si>
-    <t>07/29/2019 10:47:24</t>
+    <t>7/29/19 10:47:24</t>
   </si>
   <si>
     <t>1: 1825</t>
@@ -2335,7 +2335,7 @@
 failur</t>
   </si>
   <si>
-    <t>07/29/2019 10:47:56</t>
+    <t>7/29/19 10:47:56</t>
   </si>
   <si>
     <t>1: 2039</t>
@@ -2347,7 +2347,7 @@
     <t>Ceftazidime</t>
   </si>
   <si>
-    <t>07/29/2019 10:49:16</t>
+    <t>7/29/19 10:49:16</t>
   </si>
   <si>
     <t>1: 2056</t>
@@ -2359,7 +2359,7 @@
     <t>azithromycin</t>
   </si>
   <si>
-    <t>07/29/2019 10:49:20</t>
+    <t>7/29/19 10:49:20</t>
   </si>
   <si>
     <t>2: 211</t>
@@ -2368,7 +2368,7 @@
     <t>2: 220</t>
   </si>
   <si>
-    <t>07/29/2019 10:50:01</t>
+    <t>7/29/19 10:50:01</t>
   </si>
   <si>
     <t>2: 227</t>
@@ -2377,7 +2377,7 @@
     <t>2: 236</t>
   </si>
   <si>
-    <t>07/29/2019 10:50:14</t>
+    <t>7/29/19 10:50:14</t>
   </si>
   <si>
     <t>2: 253</t>
@@ -2386,7 +2386,7 @@
     <t>2: 262</t>
   </si>
   <si>
-    <t>07/29/2019 10:50:20</t>
+    <t>7/29/19 10:50:20</t>
   </si>
   <si>
     <t>1: 83</t>
@@ -2398,7 +2398,7 @@
     <t>Kuala Lumpur</t>
   </si>
   <si>
-    <t>07/29/2019 10:52:31</t>
+    <t>7/29/19 10:52:31</t>
   </si>
   <si>
     <t>1: 103</t>
@@ -2407,7 +2407,7 @@
     <t>Kuala Lumpur Hospital</t>
   </si>
   <si>
-    <t>07/29/2019 10:52:43</t>
+    <t>7/29/19 10:52:43</t>
   </si>
   <si>
     <t>2: 909</t>
@@ -2419,7 +2419,7 @@
     <t>patient responded well</t>
   </si>
   <si>
-    <t>07/29/2019 10:53:36</t>
+    <t>7/29/19 10:53:36</t>
   </si>
   <si>
     <t>1: 1969</t>
@@ -2432,7 +2432,7 @@
 oedema with pneumoni</t>
   </si>
   <si>
-    <t>07/29/2019 10:54:49</t>
+    <t>7/29/19 10:54:49</t>
   </si>
   <si>
     <t>1: 2228</t>
@@ -2444,7 +2444,7 @@
     <t>Enterococcus faecium</t>
   </si>
   <si>
-    <t>07/29/2019 10:56:05</t>
+    <t>7/29/19 10:56:05</t>
   </si>
   <si>
     <t>1: 2341</t>
@@ -2456,7 +2456,7 @@
     <t>2006</t>
   </si>
   <si>
-    <t>07/29/2019 10:56:36</t>
+    <t>7/29/19 10:56:36</t>
   </si>
   <si>
     <t>1: 2337</t>
@@ -2468,7 +2468,7 @@
     <t>May</t>
   </si>
   <si>
-    <t>07/29/2019 10:56:44</t>
+    <t>7/29/19 10:56:44</t>
   </si>
   <si>
     <t>23408</t>
@@ -2483,7 +2483,7 @@
     <t>49</t>
   </si>
   <si>
-    <t>07/29/2019 11:01:39</t>
+    <t>7/29/19 11:01:39</t>
   </si>
   <si>
     <t>1: 2538</t>
@@ -2492,13 +2492,13 @@
     <t>1: 2541</t>
   </si>
   <si>
-    <t>07/29/2019 11:01:47</t>
+    <t>7/29/19 11:01:47</t>
   </si>
   <si>
     <t>1: 2667</t>
   </si>
   <si>
-    <t>07/29/2019 11:02:22</t>
+    <t>7/29/19 11:02:22</t>
   </si>
   <si>
     <t>1: 2718</t>
@@ -2507,7 +2507,7 @@
     <t>1: 2721</t>
   </si>
   <si>
-    <t>07/29/2019 11:02:39</t>
+    <t>7/29/19 11:02:39</t>
   </si>
   <si>
     <t>1: 2709</t>
@@ -2519,7 +2519,7 @@
     <t>Sep</t>
   </si>
   <si>
-    <t>07/29/2019 11:02:44</t>
+    <t>7/29/19 11:02:44</t>
   </si>
   <si>
     <t>1: 2714</t>
@@ -2531,7 +2531,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>07/29/2019 11:02:51</t>
+    <t>7/29/19 11:02:51</t>
   </si>
   <si>
     <t>1: 2832</t>
@@ -2543,7 +2543,7 @@
     <t>chronic rhinitis</t>
   </si>
   <si>
-    <t>07/29/2019 11:03:23</t>
+    <t>7/29/19 11:03:23</t>
   </si>
   <si>
     <t>2: 661</t>
@@ -2552,7 +2552,7 @@
     <t>2: 670</t>
   </si>
   <si>
-    <t>07/29/2019 11:05:15</t>
+    <t>7/29/19 11:05:15</t>
   </si>
   <si>
     <t>2: 673</t>
@@ -2561,7 +2561,7 @@
     <t>2: 684</t>
   </si>
   <si>
-    <t>07/29/2019 11:05:50</t>
+    <t>7/29/19 11:05:50</t>
   </si>
   <si>
     <t>2: 687</t>
@@ -2574,7 +2574,7 @@
 cefoperazone</t>
   </si>
   <si>
-    <t>07/29/2019 11:05:58</t>
+    <t>7/29/19 11:05:58</t>
   </si>
   <si>
     <t>2: 710</t>
@@ -2586,7 +2586,7 @@
     <t>sulbactam</t>
   </si>
   <si>
-    <t>07/29/2019 11:06:04</t>
+    <t>7/29/19 11:06:04</t>
   </si>
   <si>
     <t>2: 721</t>
@@ -2598,7 +2598,7 @@
     <t>cefuroxime</t>
   </si>
   <si>
-    <t>07/29/2019 11:06:08</t>
+    <t>7/29/19 11:06:08</t>
   </si>
   <si>
     <t>2: 733</t>
@@ -2610,7 +2610,7 @@
     <t>ornidazole</t>
   </si>
   <si>
-    <t>07/29/2019 11:06:12</t>
+    <t>7/29/19 11:06:12</t>
   </si>
   <si>
     <t>2: 745</t>
@@ -2619,7 +2619,7 @@
     <t>2: 752</t>
   </si>
   <si>
-    <t>07/29/2019 11:06:17</t>
+    <t>7/29/19 11:06:17</t>
   </si>
   <si>
     <t>2: 757</t>
@@ -2631,7 +2631,7 @@
     <t>sodium imipenem/cliastatin</t>
   </si>
   <si>
-    <t>07/29/2019 11:06:25</t>
+    <t>7/29/19 11:06:25</t>
   </si>
   <si>
     <t>1: 4147</t>
@@ -2643,7 +2643,7 @@
     <t>ZLJ-0</t>
   </si>
   <si>
-    <t>07/29/2019 11:09:44</t>
+    <t>7/29/19 11:09:44</t>
   </si>
   <si>
     <t>1: 2766</t>
@@ -2655,7 +2655,7 @@
     <t>First Affiliated Hospital of Peking University</t>
   </si>
   <si>
-    <t>07/29/2019 11:10:57</t>
+    <t>7/29/19 11:10:57</t>
   </si>
   <si>
     <t>1: 3213</t>
@@ -2667,7 +2667,7 @@
     <t>Jiaozhou, Shandong</t>
   </si>
   <si>
-    <t>07/29/2019 11:11:23</t>
+    <t>7/29/19 11:11:23</t>
   </si>
   <si>
     <t>1: 121</t>
@@ -2679,7 +2679,7 @@
     <t>Rhodoplanes sp., Alphaproteobacteria</t>
   </si>
   <si>
-    <t>07/29/2019 11:11:41</t>
+    <t>7/29/19 11:11:41</t>
   </si>
   <si>
     <t>23328</t>
@@ -2703,7 +2703,7 @@
 are needed to prevent the further rise and spread of drug-resistant and MDR TB.</t>
   </si>
   <si>
-    <t>07/29/2019 11:16:27</t>
+    <t>7/29/19 11:16:27</t>
   </si>
   <si>
     <t>23199</t>
@@ -2718,7 +2718,7 @@
     <t>Neisseria gonorrhoeae</t>
   </si>
   <si>
-    <t>07/29/2019 11:21:56</t>
+    <t>7/29/19 11:21:56</t>
   </si>
   <si>
     <t>1: 10</t>
@@ -2730,7 +2730,7 @@
     <t>Susceptibility Rate</t>
   </si>
   <si>
-    <t>07/29/2019 11:28:25</t>
+    <t>7/29/19 11:28:25</t>
   </si>
   <si>
     <t>22703</t>
@@ -2745,7 +2745,7 @@
     <t>Babesia microti</t>
   </si>
   <si>
-    <t>07/29/2019 11:32:15</t>
+    <t>7/29/19 11:32:15</t>
   </si>
   <si>
     <t>2: 240</t>
@@ -2757,7 +2757,7 @@
     <t>63</t>
   </si>
   <si>
-    <t>07/29/2019 11:34:15</t>
+    <t>7/29/19 11:34:15</t>
   </si>
   <si>
     <t>2: 252</t>
@@ -2769,7 +2769,7 @@
     <t>man</t>
   </si>
   <si>
-    <t>07/29/2019 11:34:21</t>
+    <t>7/29/19 11:34:21</t>
   </si>
   <si>
     <t>2: 261</t>
@@ -2781,7 +2781,7 @@
     <t>Westchester County</t>
   </si>
   <si>
-    <t>07/29/2019 11:34:47</t>
+    <t>7/29/19 11:34:47</t>
   </si>
   <si>
     <t>2: 281</t>
@@ -2794,7 +2794,7 @@
 York</t>
   </si>
   <si>
-    <t>07/29/2019 11:34:58</t>
+    <t>7/29/19 11:34:58</t>
   </si>
   <si>
     <t>2: 376</t>
@@ -2803,7 +2803,7 @@
     <t>2: 382</t>
   </si>
   <si>
-    <t>07/29/2019 11:35:18</t>
+    <t>7/29/19 11:35:18</t>
   </si>
   <si>
     <t>2: 384</t>
@@ -2815,7 +2815,7 @@
     <t>2008</t>
   </si>
   <si>
-    <t>07/29/2019 11:35:24</t>
+    <t>7/29/19 11:35:24</t>
   </si>
   <si>
     <t>2: 374</t>
@@ -2824,7 +2824,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>07/29/2019 11:35:33</t>
+    <t>7/29/19 11:35:33</t>
   </si>
   <si>
     <t>3: 554</t>
@@ -2833,7 +2833,7 @@
     <t>atovaquone</t>
   </si>
   <si>
-    <t>07/29/2019 11:40:48</t>
+    <t>7/29/19 11:40:48</t>
   </si>
   <si>
     <t>2: 1702</t>
@@ -2842,7 +2842,7 @@
     <t>2: 1712</t>
   </si>
   <si>
-    <t>07/29/2019 11:41:02</t>
+    <t>7/29/19 11:41:02</t>
   </si>
   <si>
     <t>2: 1659</t>
@@ -2854,7 +2854,7 @@
     <t>quinine</t>
   </si>
   <si>
-    <t>07/29/2019 11:41:11</t>
+    <t>7/29/19 11:41:11</t>
   </si>
   <si>
     <t>3: 1679</t>
@@ -2866,7 +2866,7 @@
     <t>azithromycin-atovaquone</t>
   </si>
   <si>
-    <t>07/29/2019 11:43:47</t>
+    <t>7/29/19 11:43:47</t>
   </si>
   <si>
     <t>3: 2119</t>
@@ -2878,7 +2878,7 @@
     <t>doxycycline</t>
   </si>
   <si>
-    <t>07/29/2019 11:45:05</t>
+    <t>7/29/19 11:45:05</t>
   </si>
   <si>
     <t>3: 2165</t>
@@ -2887,7 +2887,7 @@
     <t>3: 2175</t>
   </si>
   <si>
-    <t>07/29/2019 11:45:12</t>
+    <t>7/29/19 11:45:12</t>
   </si>
   <si>
     <t>4: 779</t>
@@ -2899,7 +2899,7 @@
     <t>86</t>
   </si>
   <si>
-    <t>07/29/2019 11:45:48</t>
+    <t>7/29/19 11:45:48</t>
   </si>
   <si>
     <t>4: 791</t>
@@ -2908,7 +2908,7 @@
     <t>4: 795</t>
   </si>
   <si>
-    <t>07/29/2019 11:45:55</t>
+    <t>7/29/19 11:45:55</t>
   </si>
   <si>
     <t>4: 802</t>
@@ -2920,7 +2920,7 @@
     <t>Connecticut</t>
   </si>
   <si>
-    <t>07/29/2019 11:46:04</t>
+    <t>7/29/19 11:46:04</t>
   </si>
   <si>
     <t>4: 855</t>
@@ -2932,7 +2932,7 @@
     <t>June</t>
   </si>
   <si>
-    <t>07/29/2019 11:46:19</t>
+    <t>7/29/19 11:46:19</t>
   </si>
   <si>
     <t>4: 860</t>
@@ -2944,7 +2944,7 @@
     <t>2005</t>
   </si>
   <si>
-    <t>07/29/2019 11:46:25</t>
+    <t>7/29/19 11:46:25</t>
   </si>
   <si>
     <t>4: 852</t>
@@ -2953,7 +2953,7 @@
     <t>4: 853</t>
   </si>
   <si>
-    <t>07/29/2019 11:46:31</t>
+    <t>7/29/19 11:46:31</t>
   </si>
   <si>
     <t>4: 909</t>
@@ -2965,7 +2965,7 @@
     <t>stage IV large cell lymphoma</t>
   </si>
   <si>
-    <t>07/29/2019 11:47:26</t>
+    <t>7/29/19 11:47:26</t>
   </si>
   <si>
     <t>4: 1051</t>
@@ -2977,64 +2977,64 @@
     <t>rituximab</t>
   </si>
   <si>
-    <t>07/29/2019 11:47:49</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:48:15</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:48:21</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:48:26</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:48:34</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:48:42</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:48:49</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:49:00</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:50:00</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:50:06</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:50:15</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:50:20</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:50:50</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:51:21</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:51:27</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:51:34</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:51:44</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:51:59</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:52:11</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:52:18</t>
+    <t>7/29/19 11:47:49</t>
+  </si>
+  <si>
+    <t>7/29/19 11:48:15</t>
+  </si>
+  <si>
+    <t>7/29/19 11:48:21</t>
+  </si>
+  <si>
+    <t>7/29/19 11:48:26</t>
+  </si>
+  <si>
+    <t>7/29/19 11:48:34</t>
+  </si>
+  <si>
+    <t>7/29/19 11:48:42</t>
+  </si>
+  <si>
+    <t>7/29/19 11:48:49</t>
+  </si>
+  <si>
+    <t>7/29/19 11:49:00</t>
+  </si>
+  <si>
+    <t>7/29/19 11:50:00</t>
+  </si>
+  <si>
+    <t>7/29/19 11:50:06</t>
+  </si>
+  <si>
+    <t>7/29/19 11:50:15</t>
+  </si>
+  <si>
+    <t>7/29/19 11:50:20</t>
+  </si>
+  <si>
+    <t>7/29/19 11:50:50</t>
+  </si>
+  <si>
+    <t>7/29/19 11:51:21</t>
+  </si>
+  <si>
+    <t>7/29/19 11:51:27</t>
+  </si>
+  <si>
+    <t>7/29/19 11:51:34</t>
+  </si>
+  <si>
+    <t>7/29/19 11:51:44</t>
+  </si>
+  <si>
+    <t>7/29/19 11:51:59</t>
+  </si>
+  <si>
+    <t>7/29/19 11:52:11</t>
+  </si>
+  <si>
+    <t>7/29/19 11:52:18</t>
   </si>
   <si>
     <t>4: 2831</t>
@@ -3043,10 +3043,10 @@
     <t>4: 2841</t>
   </si>
   <si>
-    <t>07/29/2019 11:56:44</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:56:58</t>
+    <t>7/29/19 11:56:44</t>
+  </si>
+  <si>
+    <t>7/29/19 11:56:58</t>
   </si>
   <si>
     <t>4: 2874</t>
@@ -3059,10 +3059,10 @@
 ycycline</t>
   </si>
   <si>
-    <t>07/29/2019 11:57:11</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:57:17</t>
+    <t>7/29/19 11:57:11</t>
+  </si>
+  <si>
+    <t>7/29/19 11:57:17</t>
   </si>
   <si>
     <t>4: 2918</t>
@@ -3071,10 +3071,10 @@
     <t>4: 2927</t>
   </si>
   <si>
-    <t>07/29/2019 11:57:27</t>
-  </si>
-  <si>
-    <t>07/29/2019 11:57:35</t>
+    <t>7/29/19 11:57:27</t>
+  </si>
+  <si>
+    <t>7/29/19 11:57:35</t>
   </si>
   <si>
     <t>4: 3579</t>
@@ -3086,7 +3086,7 @@
     <t>45</t>
   </si>
   <si>
-    <t>07/29/2019 11:59:45</t>
+    <t>7/29/19 11:59:45</t>
   </si>
   <si>
     <t>4: 3604</t>
@@ -3095,7 +3095,7 @@
     <t>4: 3608</t>
   </si>
   <si>
-    <t>07/29/2019 11:59:52</t>
+    <t>7/29/19 11:59:52</t>
   </si>
   <si>
     <t>4: 3578</t>
@@ -3104,10 +3104,10 @@
     <t xml:space="preserve"> 45</t>
   </si>
   <si>
-    <t>07/29/2019 12:00:04</t>
-  </si>
-  <si>
-    <t>07/29/2019 12:00:10</t>
+    <t>7/29/19 12:00:04</t>
+  </si>
+  <si>
+    <t>7/29/19 12:00:10</t>
   </si>
   <si>
     <t>4: 3699</t>
@@ -3116,7 +3116,7 @@
     <t>4: 3701</t>
   </si>
   <si>
-    <t>07/29/2019 12:00:42</t>
+    <t>7/29/19 12:00:42</t>
   </si>
   <si>
     <t>4: 3703</t>
@@ -3125,13 +3125,13 @@
     <t>4: 3706</t>
   </si>
   <si>
-    <t>07/29/2019 12:00:47</t>
-  </si>
-  <si>
-    <t>07/29/2019 12:00:52</t>
-  </si>
-  <si>
-    <t>07/29/2019 12:00:57</t>
+    <t>7/29/19 12:00:47</t>
+  </si>
+  <si>
+    <t>7/29/19 12:00:52</t>
+  </si>
+  <si>
+    <t>7/29/19 12:00:57</t>
   </si>
   <si>
     <t>4: 3730</t>
@@ -3143,10 +3143,10 @@
     <t>Hodgkin disease</t>
   </si>
   <si>
-    <t>07/29/2019 12:01:15</t>
-  </si>
-  <si>
-    <t>07/29/2019 12:01:32</t>
+    <t>7/29/19 12:01:15</t>
+  </si>
+  <si>
+    <t>7/29/19 12:01:32</t>
   </si>
   <si>
     <t>4: 4165</t>
@@ -3159,7 +3159,7 @@
 romycin</t>
   </si>
   <si>
-    <t>07/29/2019 12:03:33</t>
+    <t>7/29/19 12:03:33</t>
   </si>
   <si>
     <t>4: 4211</t>
@@ -3171,16 +3171,16 @@
     <t>aquone</t>
   </si>
   <si>
-    <t>07/29/2019 12:02:37</t>
-  </si>
-  <si>
-    <t>07/29/2019 12:08:35</t>
-  </si>
-  <si>
-    <t>07/29/2019 12:08:38</t>
-  </si>
-  <si>
-    <t>07/29/2019 12:08:42</t>
+    <t>7/29/19 12:02:37</t>
+  </si>
+  <si>
+    <t>7/29/19 12:08:35</t>
+  </si>
+  <si>
+    <t>7/29/19 12:08:38</t>
+  </si>
+  <si>
+    <t>7/29/19 12:08:42</t>
   </si>
   <si>
     <t>4: 3615</t>
@@ -3193,10 +3193,10 @@
 necticut </t>
   </si>
   <si>
-    <t>07/29/2019 12:09:36</t>
-  </si>
-  <si>
-    <t>07/29/2019 12:09:49</t>
+    <t>7/29/19 12:09:36</t>
+  </si>
+  <si>
+    <t>7/29/19 12:09:49</t>
   </si>
   <si>
     <t>4: 3613</t>
@@ -3209,7 +3209,7 @@
 necticut</t>
   </si>
   <si>
-    <t>07/29/2019 12:10:02</t>
+    <t>7/29/19 12:10:02</t>
   </si>
   <si>
     <t>21983</t>
@@ -3224,7 +3224,7 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>07/29/2019 13:15:14</t>
+    <t>7/29/19 13:15:14</t>
   </si>
   <si>
     <t>1: 1093</t>
@@ -3241,7 +3241,7 @@
 multilocus sequence typing (MLST) were performed.</t>
   </si>
   <si>
-    <t>07/29/2019 13:15:51</t>
+    <t>7/29/19 13:15:51</t>
   </si>
   <si>
     <t>21982</t>
@@ -3253,7 +3253,7 @@
     <t>1: 3222</t>
   </si>
   <si>
-    <t>07/29/2019 13:44:02</t>
+    <t>7/29/19 13:44:02</t>
   </si>
   <si>
     <t>1: 3224</t>
@@ -3262,7 +3262,7 @@
     <t>1: 3227</t>
   </si>
   <si>
-    <t>07/29/2019 13:44:07</t>
+    <t>7/29/19 13:44:07</t>
   </si>
   <si>
     <t>1: 3232</t>
@@ -3271,7 +3271,7 @@
     <t>1: 3237</t>
   </si>
   <si>
-    <t>07/29/2019 13:44:14</t>
+    <t>7/29/19 13:44:14</t>
   </si>
   <si>
     <t>1: 3256</t>
@@ -3280,7 +3280,7 @@
     <t>50s</t>
   </si>
   <si>
-    <t>07/29/2019 13:44:21</t>
+    <t>7/29/19 13:44:21</t>
   </si>
   <si>
     <t>1: 3300</t>
@@ -3292,7 +3292,7 @@
     <t xml:space="preserve"> Serres General Hospital</t>
   </si>
   <si>
-    <t>07/29/2019 13:44:56</t>
+    <t>7/29/19 13:44:56</t>
   </si>
   <si>
     <t>1: 3326</t>
@@ -3304,7 +3304,7 @@
     <t>Serres</t>
   </si>
   <si>
-    <t>07/29/2019 13:45:01</t>
+    <t>7/29/19 13:45:01</t>
   </si>
   <si>
     <t>1: 3334</t>
@@ -3316,7 +3316,7 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>07/29/2019 13:45:06</t>
+    <t>7/29/19 13:45:06</t>
   </si>
   <si>
     <t>1: 3613</t>
@@ -3325,7 +3325,7 @@
     <t>1: 3622</t>
   </si>
   <si>
-    <t>07/29/2019 13:45:39</t>
+    <t>7/29/19 13:45:39</t>
   </si>
   <si>
     <t>1: 731</t>
@@ -3338,7 +3338,7 @@
 pneumoniae</t>
   </si>
   <si>
-    <t>07/29/2019 13:46:08</t>
+    <t>7/29/19 13:46:08</t>
   </si>
   <si>
     <t>1: 697</t>
@@ -3351,7 +3351,7 @@
 pneumoniae isolates</t>
   </si>
   <si>
-    <t>07/29/2019 13:46:23</t>
+    <t>7/29/19 13:46:23</t>
   </si>
   <si>
     <t>1: 3741</t>
@@ -3363,7 +3363,7 @@
     <t>cephamycins</t>
   </si>
   <si>
-    <t>07/29/2019 13:48:06</t>
+    <t>7/29/19 13:48:06</t>
   </si>
   <si>
     <t>1: 3775</t>
@@ -3375,7 +3375,7 @@
     <t>cephalosporins</t>
   </si>
   <si>
-    <t>07/29/2019 13:48:10</t>
+    <t>7/29/19 13:48:10</t>
   </si>
   <si>
     <t>1: 3837</t>
@@ -3384,19 +3384,19 @@
     <t>1: 3847</t>
   </si>
   <si>
-    <t>07/29/2019 13:48:15</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:50:02</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:50:23</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:50:30</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:50:37</t>
+    <t>7/29/19 13:48:15</t>
+  </si>
+  <si>
+    <t>7/29/19 13:50:02</t>
+  </si>
+  <si>
+    <t>7/29/19 13:50:23</t>
+  </si>
+  <si>
+    <t>7/29/19 13:50:30</t>
+  </si>
+  <si>
+    <t>7/29/19 13:50:37</t>
   </si>
   <si>
     <t>1: 3697</t>
@@ -3408,10 +3408,10 @@
     <t>K1</t>
   </si>
   <si>
-    <t>07/29/2019 13:50:48</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:50:55</t>
+    <t>7/29/19 13:50:48</t>
+  </si>
+  <si>
+    <t>7/29/19 13:50:55</t>
   </si>
   <si>
     <t>1: 4066</t>
@@ -3423,22 +3423,22 @@
     <t>K2</t>
   </si>
   <si>
-    <t>07/29/2019 13:51:06</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:51:12</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:51:44</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:51:50</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:51:56</t>
-  </si>
-  <si>
-    <t>07/29/2019 13:52:03</t>
+    <t>7/29/19 13:51:06</t>
+  </si>
+  <si>
+    <t>7/29/19 13:51:12</t>
+  </si>
+  <si>
+    <t>7/29/19 13:51:44</t>
+  </si>
+  <si>
+    <t>7/29/19 13:51:50</t>
+  </si>
+  <si>
+    <t>7/29/19 13:51:56</t>
+  </si>
+  <si>
+    <t>7/29/19 13:52:03</t>
   </si>
   <si>
     <t>1: 4325</t>
@@ -3450,7 +3450,7 @@
     <t>(K3</t>
   </si>
   <si>
-    <t>07/29/2019 13:53:52</t>
+    <t>7/29/19 13:53:52</t>
   </si>
   <si>
     <t>1: 4355</t>
@@ -3459,7 +3459,7 @@
     <t>1: 4365</t>
   </si>
   <si>
-    <t>07/29/2019 13:53:57</t>
+    <t>7/29/19 13:53:57</t>
   </si>
   <si>
     <t>1: 4392</t>
@@ -3468,7 +3468,7 @@
     <t>1: 4405</t>
   </si>
   <si>
-    <t>07/29/2019 13:54:02</t>
+    <t>7/29/19 13:54:02</t>
   </si>
   <si>
     <t>2: 4590</t>
@@ -3477,10 +3477,10 @@
     <t>2: 4593</t>
   </si>
   <si>
-    <t>07/29/2019 15:34:51</t>
-  </si>
-  <si>
-    <t>07/29/2019 15:34:57</t>
+    <t>7/29/19 15:34:51</t>
+  </si>
+  <si>
+    <t>7/29/19 15:34:57</t>
   </si>
   <si>
     <t>2: 4587</t>
@@ -3489,10 +3489,10 @@
     <t>2: 4588</t>
   </si>
   <si>
-    <t>07/29/2019 15:35:06</t>
-  </si>
-  <si>
-    <t>07/29/2019 15:35:12</t>
+    <t>7/29/19 15:35:06</t>
+  </si>
+  <si>
+    <t>7/29/19 15:35:12</t>
   </si>
   <si>
     <t>2: 4636</t>
@@ -3504,7 +3504,7 @@
     <t>05</t>
   </si>
   <si>
-    <t>07/29/2019 15:35:21</t>
+    <t>7/29/19 15:35:21</t>
   </si>
   <si>
     <t>2: 4639</t>
@@ -3513,13 +3513,13 @@
     <t>2: 4642</t>
   </si>
   <si>
-    <t>07/29/2019 15:35:28</t>
-  </si>
-  <si>
-    <t>07/29/2019 15:35:33</t>
-  </si>
-  <si>
-    <t>07/29/2019 15:35:37</t>
+    <t>7/29/19 15:35:28</t>
+  </si>
+  <si>
+    <t>7/29/19 15:35:33</t>
+  </si>
+  <si>
+    <t>7/29/19 15:35:37</t>
   </si>
   <si>
     <t>21436</t>
@@ -3536,7 +3536,7 @@
 BSI incidence showed a seven-fold increase during the study period (0.002 per 1,000 patient days in 2007 vs. 0.014 in 2010).</t>
   </si>
   <si>
-    <t>07/31/2019 12:19:35</t>
+    <t>7/31/19 12:19:35</t>
   </si>
   <si>
     <t>21257</t>
@@ -3548,7 +3548,7 @@
     <t>1: 4184</t>
   </si>
   <si>
-    <t>07/31/2019 14:05:33</t>
+    <t>7/31/19 14:05:33</t>
   </si>
   <si>
     <t>1: 4197</t>
@@ -3557,7 +3557,7 @@
     <t>1: 4199</t>
   </si>
   <si>
-    <t>07/31/2019 14:05:38</t>
+    <t>7/31/19 14:05:38</t>
   </si>
   <si>
     <t>1: 4292</t>
@@ -3569,7 +3569,7 @@
     <t>daptomycin</t>
   </si>
   <si>
-    <t>07/31/2019 14:05:53</t>
+    <t>7/31/19 14:05:53</t>
   </si>
   <si>
     <t>1: 4476</t>
@@ -3581,7 +3581,7 @@
     <t>MRSA 10 (USA300)</t>
   </si>
   <si>
-    <t>07/31/2019 14:06:12</t>
+    <t>7/31/19 14:06:12</t>
   </si>
   <si>
     <t>2: 153</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">hepatitis C </t>
   </si>
   <si>
-    <t>07/31/2019 14:07:04</t>
+    <t>7/31/19 14:07:04</t>
   </si>
   <si>
     <t>2: 230</t>
@@ -3605,7 +3605,7 @@
     <t>pleuritic chest pain</t>
   </si>
   <si>
-    <t>07/31/2019 14:07:21</t>
+    <t>7/31/19 14:07:21</t>
   </si>
   <si>
     <t>2: 265</t>
@@ -3614,7 +3614,7 @@
     <t>2: 269</t>
   </si>
   <si>
-    <t>07/31/2019 14:07:25</t>
+    <t>7/31/19 14:07:25</t>
   </si>
   <si>
     <t>2: 277</t>
@@ -3626,13 +3626,13 @@
     <t>chills</t>
   </si>
   <si>
-    <t>07/31/2019 14:07:28</t>
+    <t>7/31/19 14:07:28</t>
   </si>
   <si>
     <t>2: 285</t>
   </si>
   <si>
-    <t>07/31/2019 14:07:32</t>
+    <t>7/31/19 14:07:32</t>
   </si>
   <si>
     <t>2: 302</t>
@@ -3641,7 +3641,7 @@
     <t>2: 308</t>
   </si>
   <si>
-    <t>07/31/2019 14:07:35</t>
+    <t>7/31/19 14:07:35</t>
   </si>
   <si>
     <t>2: 3201</t>
@@ -3654,7 +3654,7 @@
 remained stable without evidence of recurrent illness</t>
   </si>
   <si>
-    <t>07/31/2019 14:08:00</t>
+    <t>7/31/19 14:08:00</t>
   </si>
   <si>
     <t>4: 973</t>
@@ -3666,7 +3666,7 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>07/31/2019 14:22:12</t>
+    <t>7/31/19 14:22:12</t>
   </si>
   <si>
     <t>1: 50</t>
@@ -3675,7 +3675,7 @@
     <t>1: 53</t>
   </si>
   <si>
-    <t>07/31/2019 14:22:31</t>
+    <t>7/31/19 14:22:31</t>
   </si>
   <si>
     <t>21164</t>
@@ -3690,7 +3690,7 @@
     <t>Raoultella planticola</t>
   </si>
   <si>
-    <t>07/31/2019 14:23:28</t>
+    <t>7/31/19 14:23:28</t>
   </si>
   <si>
     <t>1: 744</t>
@@ -3702,7 +3702,7 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>07/31/2019 14:23:41</t>
+    <t>7/31/19 14:23:41</t>
   </si>
   <si>
     <t>1: 2632</t>
@@ -3714,10 +3714,10 @@
     <t>77</t>
   </si>
   <si>
-    <t>07/31/2019 14:24:49</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:24:53</t>
+    <t>7/31/19 14:24:49</t>
+  </si>
+  <si>
+    <t>7/31/19 14:24:53</t>
   </si>
   <si>
     <t>1: 2644</t>
@@ -3726,10 +3726,10 @@
     <t>1: 2647</t>
   </si>
   <si>
-    <t>07/31/2019 14:24:57</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:25:01</t>
+    <t>7/31/19 14:24:57</t>
+  </si>
+  <si>
+    <t>7/31/19 14:25:01</t>
   </si>
   <si>
     <t>1: 3233</t>
@@ -3738,10 +3738,10 @@
     <t>1: 3236</t>
   </si>
   <si>
-    <t>07/31/2019 14:25:07</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:25:10</t>
+    <t>7/31/19 14:25:07</t>
+  </si>
+  <si>
+    <t>7/31/19 14:25:10</t>
   </si>
   <si>
     <t>1: 3221</t>
@@ -3750,10 +3750,10 @@
     <t>57</t>
   </si>
   <si>
-    <t>07/31/2019 14:25:16</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:25:19</t>
+    <t>7/31/19 14:25:16</t>
+  </si>
+  <si>
+    <t>7/31/19 14:25:19</t>
   </si>
   <si>
     <t>1: 2729</t>
@@ -3762,10 +3762,10 @@
     <t>pneumonia</t>
   </si>
   <si>
-    <t>07/31/2019 14:25:28</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:25:32</t>
+    <t>7/31/19 14:25:28</t>
+  </si>
+  <si>
+    <t>7/31/19 14:25:32</t>
   </si>
   <si>
     <t>1: 2734</t>
@@ -3777,7 +3777,7 @@
     <t>February</t>
   </si>
   <si>
-    <t>07/31/2019 14:25:35</t>
+    <t>7/31/19 14:25:35</t>
   </si>
   <si>
     <t>1: 2743</t>
@@ -3786,13 +3786,13 @@
     <t>1: 2746</t>
   </si>
   <si>
-    <t>07/31/2019 14:25:39</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:26:01</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:26:06</t>
+    <t>7/31/19 14:25:39</t>
+  </si>
+  <si>
+    <t>7/31/19 14:26:01</t>
+  </si>
+  <si>
+    <t>7/31/19 14:26:06</t>
   </si>
   <si>
     <t>1: 3276</t>
@@ -3801,10 +3801,10 @@
     <t>cancer</t>
   </si>
   <si>
-    <t>07/31/2019 14:26:22</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:26:25</t>
+    <t>7/31/19 14:26:22</t>
+  </si>
+  <si>
+    <t>7/31/19 14:26:25</t>
   </si>
   <si>
     <t>1: 3501</t>
@@ -3816,10 +3816,10 @@
     <t>carbapenem-</t>
   </si>
   <si>
-    <t>07/31/2019 14:26:43</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:26:46</t>
+    <t>7/31/19 14:26:43</t>
+  </si>
+  <si>
+    <t>7/31/19 14:26:46</t>
   </si>
   <si>
     <t>1: 3522</t>
@@ -3832,10 +3832,10 @@
 planticola</t>
   </si>
   <si>
-    <t>07/31/2019 14:27:04</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:27:07</t>
+    <t>7/31/19 14:27:04</t>
+  </si>
+  <si>
+    <t>7/31/19 14:27:07</t>
   </si>
   <si>
     <t>1: 3538</t>
@@ -3847,10 +3847,10 @@
     <t>isolate 193</t>
   </si>
   <si>
-    <t>07/31/2019 14:27:21</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:27:27</t>
+    <t>7/31/19 14:27:21</t>
+  </si>
+  <si>
+    <t>7/31/19 14:27:27</t>
   </si>
   <si>
     <t>1: 2911</t>
@@ -3862,10 +3862,10 @@
     <t xml:space="preserve"> carbapenem</t>
   </si>
   <si>
-    <t>07/31/2019 14:27:59</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:28:10</t>
+    <t>7/31/19 14:27:59</t>
+  </si>
+  <si>
+    <t>7/31/19 14:28:10</t>
   </si>
   <si>
     <t>1: 2932</t>
@@ -3877,7 +3877,7 @@
     <t>R. planticol</t>
   </si>
   <si>
-    <t>07/31/2019 14:28:50</t>
+    <t>7/31/19 14:28:50</t>
   </si>
   <si>
     <t>1: 2948</t>
@@ -3889,10 +3889,10 @@
     <t>isolate 139</t>
   </si>
   <si>
-    <t>07/31/2019 14:29:09</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:29:12</t>
+    <t>7/31/19 14:29:09</t>
+  </si>
+  <si>
+    <t>7/31/19 14:29:12</t>
   </si>
   <si>
     <t>2: 2536</t>
@@ -3904,13 +3904,13 @@
     <t>blaIMP-8</t>
   </si>
   <si>
-    <t>07/31/2019 14:30:18</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:31:04</t>
-  </si>
-  <si>
-    <t>07/31/2019 14:31:07</t>
+    <t>7/31/19 14:30:18</t>
+  </si>
+  <si>
+    <t>7/31/19 14:31:04</t>
+  </si>
+  <si>
+    <t>7/31/19 14:31:07</t>
   </si>
   <si>
     <t>20840</t>
@@ -3922,7 +3922,7 @@
     <t>1: 764</t>
   </si>
   <si>
-    <t>07/31/2019 14:44:20</t>
+    <t>7/31/19 14:44:20</t>
   </si>
   <si>
     <t>1: 750</t>
@@ -3934,7 +3934,7 @@
     <t>Ontario</t>
   </si>
   <si>
-    <t>07/31/2019 14:44:49</t>
+    <t>7/31/19 14:44:49</t>
   </si>
   <si>
     <t>1: 723</t>
@@ -3943,7 +3943,7 @@
     <t>1: 735</t>
   </si>
   <si>
-    <t>07/31/2019 14:45:02</t>
+    <t>7/31/19 14:45:02</t>
   </si>
   <si>
     <t>1: 707</t>
@@ -3955,7 +3955,7 @@
     <t xml:space="preserve">NDM-1–producing </t>
   </si>
   <si>
-    <t>07/31/2019 14:45:11</t>
+    <t>7/31/19 14:45:11</t>
   </si>
   <si>
     <t>1: 771</t>
@@ -3964,7 +3964,7 @@
     <t>1: 776</t>
   </si>
   <si>
-    <t>07/31/2019 14:45:19</t>
+    <t>7/31/19 14:45:19</t>
   </si>
   <si>
     <t>1: 778</t>
@@ -3973,7 +3973,7 @@
     <t>1: 781</t>
   </si>
   <si>
-    <t>07/31/2019 14:45:24</t>
+    <t>7/31/19 14:45:24</t>
   </si>
   <si>
     <t>1: 831</t>
@@ -3985,7 +3985,7 @@
     <t>36</t>
   </si>
   <si>
-    <t>07/31/2019 14:45:39</t>
+    <t>7/31/19 14:45:39</t>
   </si>
   <si>
     <t>1: 845</t>
@@ -3994,7 +3994,7 @@
     <t>1: 849</t>
   </si>
   <si>
-    <t>07/31/2019 14:45:44</t>
+    <t>7/31/19 14:45:44</t>
   </si>
   <si>
     <t>1: 868</t>
@@ -4006,7 +4006,7 @@
     <t>Brampton</t>
   </si>
   <si>
-    <t>07/31/2019 14:45:53</t>
+    <t>7/31/19 14:45:53</t>
   </si>
   <si>
     <t>1: 1364</t>
@@ -4015,7 +4015,7 @@
     <t>1: 1368</t>
   </si>
   <si>
-    <t>07/31/2019 14:46:20</t>
+    <t>7/31/19 14:46:20</t>
   </si>
   <si>
     <t>1: 1405</t>
@@ -4027,7 +4027,7 @@
     <t>miscarriage</t>
   </si>
   <si>
-    <t>07/31/2019 14:46:33</t>
+    <t>7/31/19 14:46:33</t>
   </si>
   <si>
     <t>1: 1579</t>
@@ -4039,7 +4039,7 @@
     <t>GN529</t>
   </si>
   <si>
-    <t>07/31/2019 14:46:57</t>
+    <t>7/31/19 14:46:57</t>
   </si>
   <si>
     <t>1: 1218</t>
@@ -4048,7 +4048,7 @@
     <t>1: 1227</t>
   </si>
   <si>
-    <t>07/31/2019 14:47:57</t>
+    <t>7/31/19 14:47:57</t>
   </si>
   <si>
     <t>1: 2991</t>
@@ -4060,7 +4060,7 @@
     <t>β-lactams,</t>
   </si>
   <si>
-    <t>07/31/2019 14:49:04</t>
+    <t>7/31/19 14:49:04</t>
   </si>
   <si>
     <t>1: 3002</t>
@@ -4073,7 +4073,7 @@
 sides</t>
   </si>
   <si>
-    <t>07/31/2019 14:49:12</t>
+    <t>7/31/19 14:49:12</t>
   </si>
   <si>
     <t>1: 3022</t>
@@ -4085,7 +4085,7 @@
     <t>quinolones</t>
   </si>
   <si>
-    <t>07/31/2019 14:49:18</t>
+    <t>7/31/19 14:49:18</t>
   </si>
   <si>
     <t>1: 3034</t>
@@ -4094,7 +4094,7 @@
     <t>1: 3045</t>
   </si>
   <si>
-    <t>07/31/2019 14:49:25</t>
+    <t>7/31/19 14:49:25</t>
   </si>
   <si>
     <t>1: 3048</t>
@@ -4107,7 +4107,7 @@
 rantoin</t>
   </si>
   <si>
-    <t>07/31/2019 14:49:34</t>
+    <t>7/31/19 14:49:34</t>
   </si>
   <si>
     <t>1: 3071</t>
@@ -4116,7 +4116,7 @@
     <t>co-trimoxazole</t>
   </si>
   <si>
-    <t>07/31/2019 14:49:43</t>
+    <t>7/31/19 14:49:43</t>
   </si>
   <si>
     <t>20344</t>
@@ -4128,7 +4128,7 @@
     <t>1: 1485</t>
   </si>
   <si>
-    <t>08/05/2019 12:14:32</t>
+    <t>8/5/19 12:14:32</t>
   </si>
   <si>
     <t>1: 1487</t>
@@ -4140,7 +4140,7 @@
     <t>NCGM77</t>
   </si>
   <si>
-    <t>08/05/2019 12:14:41</t>
+    <t>8/5/19 12:14:41</t>
   </si>
   <si>
     <t>1: 1562</t>
@@ -4152,7 +4152,7 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>08/05/2019 12:14:52</t>
+    <t>8/5/19 12:14:52</t>
   </si>
   <si>
     <t>1: 1571</t>
@@ -4164,7 +4164,7 @@
     <t>2013</t>
   </si>
   <si>
-    <t>08/05/2019 12:15:09</t>
+    <t>8/5/19 12:15:09</t>
   </si>
   <si>
     <t>2: 3497</t>
@@ -4176,7 +4176,7 @@
     <t>Ampicillin</t>
   </si>
   <si>
-    <t>08/05/2019 12:19:55</t>
+    <t>8/5/19 12:19:55</t>
   </si>
   <si>
     <t>2: 3508</t>
@@ -4188,13 +4188,13 @@
     <t>_x0005_1,024</t>
   </si>
   <si>
-    <t>08/05/2019 12:20:16</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:20:22</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:20:25</t>
+    <t>8/5/19 12:20:16</t>
+  </si>
+  <si>
+    <t>8/5/19 12:20:22</t>
+  </si>
+  <si>
+    <t>8/5/19 12:20:25</t>
   </si>
   <si>
     <t>2: 3526</t>
@@ -4203,7 +4203,7 @@
     <t xml:space="preserve">Ampicillin-sulbactam </t>
   </si>
   <si>
-    <t>08/05/2019 12:21:46</t>
+    <t>8/5/19 12:21:46</t>
   </si>
   <si>
     <t>2: 3547</t>
@@ -4212,16 +4212,16 @@
     <t>2: 3552</t>
   </si>
   <si>
-    <t>08/05/2019 12:21:58</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:22:04</t>
+    <t>8/5/19 12:21:58</t>
+  </si>
+  <si>
+    <t>8/5/19 12:22:04</t>
   </si>
   <si>
     <t>Ampicillin-sulbactam</t>
   </si>
   <si>
-    <t>08/05/2019 12:22:36</t>
+    <t>8/5/19 12:22:36</t>
   </si>
   <si>
     <t>2: 3565</t>
@@ -4233,10 +4233,10 @@
     <t>Aztreonam</t>
   </si>
   <si>
-    <t>08/05/2019 12:22:41</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:22:45</t>
+    <t>8/5/19 12:22:41</t>
+  </si>
+  <si>
+    <t>8/5/19 12:22:45</t>
   </si>
   <si>
     <t>2: 3575</t>
@@ -4245,10 +4245,10 @@
     <t>2: 3580</t>
   </si>
   <si>
-    <t>08/05/2019 12:23:14</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:23:18</t>
+    <t>8/5/19 12:23:14</t>
+  </si>
+  <si>
+    <t>8/5/19 12:23:18</t>
   </si>
   <si>
     <t>2: 3610</t>
@@ -4257,13 +4257,13 @@
     <t>2: 3615</t>
   </si>
   <si>
-    <t>08/05/2019 12:23:42</t>
+    <t>8/5/19 12:23:42</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>08/05/2019 12:23:47</t>
+    <t>8/5/19 12:23:47</t>
   </si>
   <si>
     <t>2: 3601</t>
@@ -4275,10 +4275,10 @@
     <t>Cefepime</t>
   </si>
   <si>
-    <t>08/05/2019 12:23:51</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:23:56</t>
+    <t>8/5/19 12:23:51</t>
+  </si>
+  <si>
+    <t>8/5/19 12:23:56</t>
   </si>
   <si>
     <t>2: 3657</t>
@@ -4290,7 +4290,7 @@
     <t>Cefotaxime</t>
   </si>
   <si>
-    <t>08/05/2019 12:24:02</t>
+    <t>8/5/19 12:24:02</t>
   </si>
   <si>
     <t>2: 3668</t>
@@ -4299,16 +4299,16 @@
     <t>2: 3673</t>
   </si>
   <si>
-    <t>08/05/2019 12:24:23</t>
+    <t>8/5/19 12:24:23</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>08/05/2019 12:24:27</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:24:31</t>
+    <t>8/5/19 12:24:27</t>
+  </si>
+  <si>
+    <t>8/5/19 12:24:31</t>
   </si>
   <si>
     <t>2: 3686</t>
@@ -4320,10 +4320,10 @@
     <t>Cefoxitin</t>
   </si>
   <si>
-    <t>08/05/2019 12:25:12</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:25:17</t>
+    <t>8/5/19 12:25:12</t>
+  </si>
+  <si>
+    <t>8/5/19 12:25:17</t>
   </si>
   <si>
     <t>2: 3696</t>
@@ -4332,10 +4332,10 @@
     <t>2: 3701</t>
   </si>
   <si>
-    <t>08/05/2019 12:25:27</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:25:32</t>
+    <t>8/5/19 12:25:27</t>
+  </si>
+  <si>
+    <t>8/5/19 12:25:32</t>
   </si>
   <si>
     <t>2: 3738</t>
@@ -4344,7 +4344,7 @@
     <t>2: 3748</t>
   </si>
   <si>
-    <t>08/05/2019 12:25:39</t>
+    <t>8/5/19 12:25:39</t>
   </si>
   <si>
     <t>2: 3750</t>
@@ -4353,16 +4353,16 @@
     <t>2: 3755</t>
   </si>
   <si>
-    <t>08/05/2019 12:25:56</t>
+    <t>8/5/19 12:25:56</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>08/05/2019 12:26:03</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:26:13</t>
+    <t>8/5/19 12:26:03</t>
+  </si>
+  <si>
+    <t>8/5/19 12:26:13</t>
   </si>
   <si>
     <t>H</t>
@@ -4377,7 +4377,7 @@
     <t>Cephradine</t>
   </si>
   <si>
-    <t>08/05/2019 12:26:19</t>
+    <t>8/5/19 12:26:19</t>
   </si>
   <si>
     <t>2: 3808</t>
@@ -4386,13 +4386,13 @@
     <t>2: 3813</t>
   </si>
   <si>
-    <t>08/05/2019 12:26:28</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:26:34</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:26:42</t>
+    <t>8/5/19 12:26:28</t>
+  </si>
+  <si>
+    <t>8/5/19 12:26:34</t>
+  </si>
+  <si>
+    <t>8/5/19 12:26:42</t>
   </si>
   <si>
     <t>2: 3942</t>
@@ -4404,7 +4404,7 @@
     <t>Penicillin G</t>
   </si>
   <si>
-    <t>08/05/2019 12:26:53</t>
+    <t>8/5/19 12:26:53</t>
   </si>
   <si>
     <t>2: 3955</t>
@@ -4413,16 +4413,16 @@
     <t>2: 3960</t>
   </si>
   <si>
-    <t>08/05/2019 12:26:59</t>
+    <t>8/5/19 12:26:59</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>08/05/2019 12:27:07</t>
-  </si>
-  <si>
-    <t>08/05/2019 12:27:12</t>
+    <t>8/5/19 12:27:07</t>
+  </si>
+  <si>
+    <t>8/5/19 12:27:12</t>
   </si>
   <si>
     <t>21726</t>
@@ -4437,7 +4437,7 @@
     <t>Tehran</t>
   </si>
   <si>
-    <t>08/05/2019 12:39:55</t>
+    <t>8/5/19 12:39:55</t>
   </si>
   <si>
     <t>2: 949</t>
@@ -4449,7 +4449,7 @@
     <t>Iran</t>
   </si>
   <si>
-    <t>08/05/2019 12:40:02</t>
+    <t>8/5/19 12:40:02</t>
   </si>
   <si>
     <t>3: 2045</t>
@@ -4471,7 +4471,7 @@
 strains were TDR isolates (10.2%). </t>
   </si>
   <si>
-    <t>08/05/2019 12:46:52</t>
+    <t>8/5/19 12:46:52</t>
   </si>
   <si>
     <t>21296</t>
@@ -4491,7 +4491,7 @@
 clearance</t>
   </si>
   <si>
-    <t>08/05/2019 12:49:40</t>
+    <t>8/5/19 12:49:40</t>
   </si>
   <si>
     <t>18812</t>
@@ -4503,7 +4503,7 @@
     <t xml:space="preserve">Streptococcus agalactiae </t>
   </si>
   <si>
-    <t>08/05/2019 12:53:51</t>
+    <t>8/5/19 12:53:51</t>
   </si>
   <si>
     <t>1: 3778</t>
@@ -4515,7 +4515,7 @@
     <t>HLGR</t>
   </si>
   <si>
-    <t>08/05/2019 13:08:43</t>
+    <t>8/5/19 13:08:43</t>
   </si>
   <si>
     <t>18418</t>
@@ -4530,7 +4530,7 @@
     <t xml:space="preserve">E. coli </t>
   </si>
   <si>
-    <t>08/05/2019 13:25:56</t>
+    <t>8/5/19 13:25:56</t>
   </si>
   <si>
     <t>1: 2262</t>
@@ -4542,7 +4542,7 @@
     <t>blaNDM-5-containing</t>
   </si>
   <si>
-    <t>08/05/2019 13:28:15</t>
+    <t>8/5/19 13:28:15</t>
   </si>
   <si>
     <t>1: 2352</t>
@@ -4554,7 +4554,7 @@
     <t>Algeria</t>
   </si>
   <si>
-    <t>08/05/2019 13:28:29</t>
+    <t>8/5/19 13:28:29</t>
   </si>
   <si>
     <t>1: 2505</t>
@@ -4566,7 +4566,7 @@
     <t>University Hospital of Annaba</t>
   </si>
   <si>
-    <t>08/05/2019 13:28:48</t>
+    <t>8/5/19 13:28:48</t>
   </si>
   <si>
     <t>1: 2598</t>
@@ -4575,7 +4575,7 @@
     <t>1: 2604</t>
   </si>
   <si>
-    <t>08/05/2019 13:30:34</t>
+    <t>8/5/19 13:30:34</t>
   </si>
   <si>
     <t>1: 2606</t>
@@ -4584,7 +4584,7 @@
     <t>1: 2609</t>
   </si>
   <si>
-    <t>08/05/2019 13:30:39</t>
+    <t>8/5/19 13:30:39</t>
   </si>
   <si>
     <t>1: 2814</t>
@@ -4596,7 +4596,7 @@
     <t>5-month-old</t>
   </si>
   <si>
-    <t>08/05/2019 13:31:37</t>
+    <t>8/5/19 13:31:37</t>
   </si>
   <si>
     <t>1: 2919</t>
@@ -4605,7 +4605,7 @@
     <t>1: 2920</t>
   </si>
   <si>
-    <t>08/05/2019 13:31:44</t>
+    <t>8/5/19 13:31:44</t>
   </si>
   <si>
     <t>1: 2942</t>
@@ -4614,16 +4614,16 @@
     <t>75</t>
   </si>
   <si>
-    <t>08/05/2019 13:31:49</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:32:03</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:32:07</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:32:15</t>
+    <t>8/5/19 13:31:49</t>
+  </si>
+  <si>
+    <t>8/5/19 13:32:03</t>
+  </si>
+  <si>
+    <t>8/5/19 13:32:07</t>
+  </si>
+  <si>
+    <t>8/5/19 13:32:15</t>
   </si>
   <si>
     <t>1: 3293</t>
@@ -4635,16 +4635,16 @@
     <t>aminoglycosides</t>
   </si>
   <si>
-    <t>08/05/2019 13:32:48</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:32:51</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:32:54</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:32:59</t>
+    <t>8/5/19 13:32:48</t>
+  </si>
+  <si>
+    <t>8/5/19 13:32:51</t>
+  </si>
+  <si>
+    <t>8/5/19 13:32:54</t>
+  </si>
+  <si>
+    <t>8/5/19 13:32:59</t>
   </si>
   <si>
     <t>1: 3313</t>
@@ -4656,16 +4656,16 @@
     <t>fluoroquinolones</t>
   </si>
   <si>
-    <t>08/05/2019 13:33:03</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:33:07</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:33:11</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:33:14</t>
+    <t>8/5/19 13:33:03</t>
+  </si>
+  <si>
+    <t>8/5/19 13:33:07</t>
+  </si>
+  <si>
+    <t>8/5/19 13:33:11</t>
+  </si>
+  <si>
+    <t>8/5/19 13:33:14</t>
   </si>
   <si>
     <t>1: 5836</t>
@@ -4677,7 +4677,7 @@
     <t>ST2659</t>
   </si>
   <si>
-    <t>08/05/2019 13:35:16</t>
+    <t>8/5/19 13:35:16</t>
   </si>
   <si>
     <t>1: 5871</t>
@@ -4689,37 +4689,37 @@
     <t>NDM-5</t>
   </si>
   <si>
-    <t>08/05/2019 13:36:02</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:36:09</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:36:13</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:36:15</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:36:20</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:36:23</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:36:26</t>
+    <t>8/5/19 13:36:02</t>
+  </si>
+  <si>
+    <t>8/5/19 13:36:09</t>
+  </si>
+  <si>
+    <t>8/5/19 13:36:13</t>
+  </si>
+  <si>
+    <t>8/5/19 13:36:15</t>
+  </si>
+  <si>
+    <t>8/5/19 13:36:20</t>
+  </si>
+  <si>
+    <t>8/5/19 13:36:23</t>
+  </si>
+  <si>
+    <t>8/5/19 13:36:26</t>
   </si>
   <si>
     <t>1: 3239</t>
   </si>
   <si>
-    <t>08/05/2019 13:48:25</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:48:29</t>
-  </si>
-  <si>
-    <t>08/05/2019 13:48:38</t>
+    <t>8/5/19 13:48:25</t>
+  </si>
+  <si>
+    <t>8/5/19 13:48:29</t>
+  </si>
+  <si>
+    <t>8/5/19 13:48:38</t>
   </si>
   <si>
     <t>18266</t>
@@ -4735,7 +4735,7 @@
 iaceae</t>
   </si>
   <si>
-    <t>08/13/2019 15:42:37</t>
+    <t>8/13/19 15:42:37</t>
   </si>
   <si>
     <t>1: 2016</t>
@@ -4747,7 +4747,7 @@
     <t>rway</t>
   </si>
   <si>
-    <t>08/13/2019 15:42:43</t>
+    <t>8/13/19 15:42:43</t>
   </si>
   <si>
     <t>1: 2022</t>
@@ -4759,7 +4759,7 @@
     <t>Case 1</t>
   </si>
   <si>
-    <t>08/13/2019 15:42:52</t>
+    <t>8/13/19 15:42:52</t>
   </si>
   <si>
     <t>1: 2044</t>
@@ -4768,7 +4768,7 @@
     <t>1: 2047</t>
   </si>
   <si>
-    <t>08/13/2019 15:43:05</t>
+    <t>8/13/19 15:43:05</t>
   </si>
   <si>
     <t>1: 2094</t>
@@ -4780,7 +4780,7 @@
     <t>urosepsis</t>
   </si>
   <si>
-    <t>08/13/2019 15:43:37</t>
+    <t>8/13/19 15:43:37</t>
   </si>
   <si>
     <t>1: 2437</t>
@@ -4792,13 +4792,13 @@
     <t>faropenem</t>
   </si>
   <si>
-    <t>08/13/2019 15:44:41</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:44:54</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:45:09</t>
+    <t>8/13/19 15:44:41</t>
+  </si>
+  <si>
+    <t>8/13/19 15:44:54</t>
+  </si>
+  <si>
+    <t>8/13/19 15:45:09</t>
   </si>
   <si>
     <t>1: 2544</t>
@@ -4807,25 +4807,25 @@
     <t>1: 2547</t>
   </si>
   <si>
-    <t>08/13/2019 15:45:25</t>
+    <t>8/13/19 15:45:25</t>
   </si>
   <si>
     <t>Klebsiella pneumoniae</t>
   </si>
   <si>
-    <t>08/13/2019 15:45:40</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:45:54</t>
+    <t>8/13/19 15:45:40</t>
+  </si>
+  <si>
+    <t>8/13/19 15:45:54</t>
   </si>
   <si>
     <t>1: 2751</t>
   </si>
   <si>
-    <t>08/13/2019 15:45:58</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:46:04</t>
+    <t>8/13/19 15:45:58</t>
+  </si>
+  <si>
+    <t>8/13/19 15:46:04</t>
   </si>
   <si>
     <t>1: 3332</t>
@@ -4834,10 +4834,10 @@
     <t>1: 3347</t>
   </si>
   <si>
-    <t>08/13/2019 15:47:44</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:47:51</t>
+    <t>8/13/19 15:47:44</t>
+  </si>
+  <si>
+    <t>8/13/19 15:47:51</t>
   </si>
   <si>
     <t>1: 3356</t>
@@ -4846,7 +4846,7 @@
     <t>(K71-77)</t>
   </si>
   <si>
-    <t>08/13/2019 15:48:03</t>
+    <t>8/13/19 15:48:03</t>
   </si>
   <si>
     <t>1: 3350</t>
@@ -4858,7 +4858,7 @@
     <t>K71-77</t>
   </si>
   <si>
-    <t>08/13/2019 15:48:19</t>
+    <t>8/13/19 15:48:19</t>
   </si>
   <si>
     <t>1: 3490</t>
@@ -4870,10 +4870,10 @@
     <t>penicillins</t>
   </si>
   <si>
-    <t>08/13/2019 15:48:28</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:48:31</t>
+    <t>8/13/19 15:48:28</t>
+  </si>
+  <si>
+    <t>8/13/19 15:48:31</t>
   </si>
   <si>
     <t>1: 3507</t>
@@ -4882,10 +4882,10 @@
     <t>1: 3520</t>
   </si>
   <si>
-    <t>08/13/2019 15:48:36</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:48:41</t>
+    <t>8/13/19 15:48:36</t>
+  </si>
+  <si>
+    <t>8/13/19 15:48:41</t>
   </si>
   <si>
     <t>1: 3647</t>
@@ -4894,19 +4894,19 @@
     <t>1: 3655</t>
   </si>
   <si>
-    <t>08/13/2019 15:48:56</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:49:03</t>
+    <t>8/13/19 15:48:56</t>
+  </si>
+  <si>
+    <t>8/13/19 15:49:03</t>
   </si>
   <si>
     <t>1: 3767</t>
   </si>
   <si>
-    <t>08/13/2019 15:49:14</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:49:18</t>
+    <t>8/13/19 15:49:14</t>
+  </si>
+  <si>
+    <t>8/13/19 15:49:18</t>
   </si>
   <si>
     <t>1: 3787</t>
@@ -4915,10 +4915,10 @@
     <t>1: 3799</t>
   </si>
   <si>
-    <t>08/13/2019 15:49:25</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:49:29</t>
+    <t>8/13/19 15:49:25</t>
+  </si>
+  <si>
+    <t>8/13/19 15:49:29</t>
   </si>
   <si>
     <t>1: 4551</t>
@@ -4930,7 +4930,7 @@
     <t>Case 2</t>
   </si>
   <si>
-    <t>08/13/2019 15:58:21</t>
+    <t>8/13/19 15:58:21</t>
   </si>
   <si>
     <t>1: 4574</t>
@@ -4939,10 +4939,10 @@
     <t>1: 4579</t>
   </si>
   <si>
-    <t>08/13/2019 15:58:27</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:58:30</t>
+    <t>8/13/19 15:58:27</t>
+  </si>
+  <si>
+    <t>8/13/19 15:58:30</t>
   </si>
   <si>
     <t>1: 4614</t>
@@ -4951,10 +4951,10 @@
     <t>1: 4618</t>
   </si>
   <si>
-    <t>08/13/2019 15:58:41</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:58:45</t>
+    <t>8/13/19 15:58:41</t>
+  </si>
+  <si>
+    <t>8/13/19 15:58:45</t>
   </si>
   <si>
     <t>1: 4623</t>
@@ -4963,10 +4963,10 @@
     <t>1: 4626</t>
   </si>
   <si>
-    <t>08/13/2019 15:58:51</t>
-  </si>
-  <si>
-    <t>08/13/2019 15:58:56</t>
+    <t>8/13/19 15:58:51</t>
+  </si>
+  <si>
+    <t>8/13/19 15:58:56</t>
   </si>
   <si>
     <t>1: 4883</t>
@@ -4975,7 +4975,7 @@
     <t>1: 4895</t>
   </si>
   <si>
-    <t>08/13/2019 16:01:37</t>
+    <t>8/13/19 16:01:37</t>
   </si>
   <si>
     <t>1: 4898</t>
@@ -4987,13 +4987,13 @@
     <t>K66-45</t>
   </si>
   <si>
-    <t>08/13/2019 16:01:49</t>
+    <t>8/13/19 16:01:49</t>
   </si>
   <si>
     <t>K. pneumoniae (K66-45</t>
   </si>
   <si>
-    <t>08/13/2019 16:01:59</t>
+    <t>8/13/19 16:01:59</t>
   </si>
   <si>
     <t>1: 5332</t>
@@ -5002,10 +5002,10 @@
     <t>1: 5340</t>
   </si>
   <si>
-    <t>08/14/2019 11:38:23</t>
-  </si>
-  <si>
-    <t>08/14/2019 11:38:30</t>
+    <t>8/14/19 11:38:23</t>
+  </si>
+  <si>
+    <t>8/14/19 11:38:30</t>
   </si>
   <si>
     <t>1: 5346</t>
@@ -5014,10 +5014,10 @@
     <t>1: 5354</t>
   </si>
   <si>
-    <t>08/14/2019 11:38:34</t>
-  </si>
-  <si>
-    <t>08/14/2019 11:38:42</t>
+    <t>8/14/19 11:38:34</t>
+  </si>
+  <si>
+    <t>8/14/19 11:38:42</t>
   </si>
   <si>
     <t>1: 5455</t>
@@ -5026,10 +5026,10 @@
     <t>1: 5469</t>
   </si>
   <si>
-    <t>08/14/2019 11:38:48</t>
-  </si>
-  <si>
-    <t>08/14/2019 11:38:53</t>
+    <t>8/14/19 11:38:48</t>
+  </si>
+  <si>
+    <t>8/14/19 11:38:53</t>
   </si>
   <si>
     <t>1: 5472</t>
@@ -5038,10 +5038,10 @@
     <t>1: 5484</t>
   </si>
   <si>
-    <t>08/14/2019 11:38:58</t>
-  </si>
-  <si>
-    <t>08/14/2019 11:39:02</t>
+    <t>8/14/19 11:38:58</t>
+  </si>
+  <si>
+    <t>8/14/19 11:39:02</t>
   </si>
   <si>
     <t>1: 5491</t>
@@ -5053,10 +5053,10 @@
     <t>trimethoprim</t>
   </si>
   <si>
-    <t>08/14/2019 11:39:09</t>
-  </si>
-  <si>
-    <t>08/14/2019 11:39:13</t>
+    <t>8/14/19 11:39:09</t>
+  </si>
+  <si>
+    <t>8/14/19 11:39:13</t>
   </si>
   <si>
     <t>1: 5504</t>
@@ -5068,10 +5068,10 @@
     <t>sulfamethoxazole</t>
   </si>
   <si>
-    <t>08/14/2019 11:39:18</t>
-  </si>
-  <si>
-    <t>08/14/2019 11:39:22</t>
+    <t>8/14/19 11:39:18</t>
+  </si>
+  <si>
+    <t>8/14/19 11:39:22</t>
   </si>
   <si>
     <t>1: 5540</t>
@@ -5083,10 +5083,47 @@
     <t>tigecycline</t>
   </si>
   <si>
-    <t>08/14/2019 11:39:27</t>
-  </si>
-  <si>
-    <t>08/14/2019 11:39:31</t>
+    <t>8/14/19 11:39:27</t>
+  </si>
+  <si>
+    <t>8/14/19 11:39:31</t>
+  </si>
+  <si>
+    <t>3: 5140</t>
+  </si>
+  <si>
+    <t>3: 5144</t>
+  </si>
+  <si>
+    <t>emmamendelsohn</t>
+  </si>
+  <si>
+    <t>8/22/19 14:21:27</t>
+  </si>
+  <si>
+    <t>3: 5046</t>
+  </si>
+  <si>
+    <t>3: 5099</t>
+  </si>
+  <si>
+    <t>Sher-i-Kashmir Institute  
+of Medical Sciences (SKIMS)</t>
+  </si>
+  <si>
+    <t>8/22/19 14:21:39</t>
+  </si>
+  <si>
+    <t>3: 5121</t>
+  </si>
+  <si>
+    <t>3: 5127</t>
+  </si>
+  <si>
+    <t>Kashmir</t>
+  </si>
+  <si>
+    <t>8/22/19 14:21:57</t>
   </si>
 </sst>
 </file>
@@ -5551,7 +5588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M588"/>
+  <dimension ref="A1:M591"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29674,6 +29711,129 @@
         <v>1667</v>
       </c>
     </row>
+    <row r="589" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A589" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H589" s="3">
+        <v>0</v>
+      </c>
+      <c r="I589" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J589" s="3">
+        <v>5</v>
+      </c>
+      <c r="K589" s="4">
+        <v>3.2187459765675289E-2</v>
+      </c>
+      <c r="L589" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="M589" s="1" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A590" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="H590" s="3">
+        <v>0</v>
+      </c>
+      <c r="I590" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="J590" s="3">
+        <v>53</v>
+      </c>
+      <c r="K590" s="4">
+        <v>0.34118707351615807</v>
+      </c>
+      <c r="L590" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A591" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H591" s="3">
+        <v>0</v>
+      </c>
+      <c r="I591" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J591" s="3">
+        <v>7</v>
+      </c>
+      <c r="K591" s="4">
+        <v>4.506244367194541E-2</v>
+      </c>
+      <c r="L591" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>1679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
